--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85531286-DB8E-4CAC-B471-17D66B198AF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA119FBC-7ED0-4967-998E-6A6D39E224B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,30 +604,6 @@
     <t>마이크로디그리취소, 마이크로디그리포기, 마이크로디그리포기절차, 마이크로디그리철회, 마이크로디그리그만, 마이크로디그리중단, 마이크로디그리해지</t>
   </si>
   <si>
-    <t>다전공변경, 다전공바꾸, 다전공전환, 다전공교체, 다전공수정</t>
-  </si>
-  <si>
-    <t>복수전공변경, 복수전공바꾸, 복수전공전환, 복수전공교체, 복수전공수정</t>
-  </si>
-  <si>
-    <t>부전공변경, 부전공바꾸, 부전공전환, 부전공교체, 부전공수정</t>
-  </si>
-  <si>
-    <t>융합전공변경, 융합전공바꾸, 융합전공전환, 융합전공교체, 융합전공수정</t>
-  </si>
-  <si>
-    <t>융합부전공변경, 융합부전공바꾸, 융합부전공전환, 융합부전공교체, 융합부전공수정</t>
-  </si>
-  <si>
-    <t>연계전공변경, 연계전공바꾸, 연계전공전환, 연계전공교체, 연계전공수정</t>
-  </si>
-  <si>
-    <t>소단위전공과정변경, 소단위전공과정바꾸, 소단위전공과정전환, 소단위전공과정교체, 소단위전공과정수정</t>
-  </si>
-  <si>
-    <t>마이크로디그리변경, 마이크로디그리바꾸, 마이크로디그리전환, 마이크로디그리교체, 마이크로디그리수정</t>
-  </si>
-  <si>
     <t>다전공차이, 다전공비교, 다전공다른점, 다전공vs, 다전공뭐가, 다전공어떤차이, 다전공어떤</t>
   </si>
   <si>
@@ -734,6 +710,38 @@
   </si>
   <si>
     <t>F062</t>
+  </si>
+  <si>
+    <t>다전공변경, 다전공바꾸, 다전공전환, 다전공교체, 다전공수정, 다전공변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공변경, 복수전공바꾸, 복수전공전환, 복수전공교체, 복수전공수정, 복수전공변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공변경, 부전공바꾸, 부전공전환, 부전공교체, 부전공수정, 부전공변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공변경, 융합전공바꾸, 융합전공전환, 융합전공교체, 융합전공수정, 융합전공변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합부전공변경, 융합부전공바꾸, 융합부전공전환, 융합부전공교체, 융합부전공수정, 융합부전공변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공변경, 연계전공바꾸, 연계전공전환, 연계전공교체, 연계전공수정, 연계전공변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정변경, 소단위전공과정바꾸, 소단위전공과정전환, 소단위전공과정교체, 소단위전공과정수정, 소단위전공과정변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리변경, 마이크로디그리바꾸, 마이크로디그리전환, 마이크로디그리교체, 마이크로디그리수정, 마이크로디그리변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1077,7 +1085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93685F3E-3127-4ECC-91E0-B0250884663A}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1577,7 +1587,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -1595,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -1613,7 +1623,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -1631,7 +1641,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -1649,7 +1659,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1667,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
@@ -1685,7 +1695,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>136</v>
@@ -1705,7 +1715,7 @@
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>136</v>
@@ -1725,11 +1735,11 @@
         <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1743,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
@@ -1761,7 +1771,7 @@
         <v>63</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
@@ -1779,7 +1789,7 @@
         <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>126</v>
@@ -1799,7 +1809,7 @@
         <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>127</v>
@@ -1819,7 +1829,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
@@ -1837,7 +1847,7 @@
         <v>68</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>136</v>
@@ -1857,7 +1867,7 @@
         <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>136</v>
@@ -1877,7 +1887,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -1895,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -1913,7 +1923,7 @@
         <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -1931,7 +1941,7 @@
         <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -1949,7 +1959,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -1967,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -1976,7 +1986,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>37</v>
@@ -2005,7 +2015,7 @@
         <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
@@ -2023,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -2041,7 +2051,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -2059,7 +2069,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -2077,7 +2087,7 @@
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -2095,7 +2105,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
@@ -2113,7 +2123,7 @@
         <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>136</v>
@@ -2133,7 +2143,7 @@
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>136</v>
@@ -2171,7 +2181,7 @@
         <v>128</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -2189,7 +2199,7 @@
         <v>128</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -2207,11 +2217,11 @@
         <v>128</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2225,7 +2235,7 @@
         <v>128</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>130</v>
@@ -2242,7 +2252,7 @@
         <v>128</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>122</v>
@@ -2250,16 +2260,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>138</v>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA119FBC-7ED0-4967-998E-6A6D39E224B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B15A74A-08DD-43D6-A4C0-733CCA6E04FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,35 +712,35 @@
     <t>F062</t>
   </si>
   <si>
-    <t>다전공변경, 다전공바꾸, 다전공전환, 다전공교체, 다전공수정, 다전공변경하려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복수전공변경, 복수전공바꾸, 복수전공전환, 복수전공교체, 복수전공수정, 복수전공변경하려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부전공변경, 부전공바꾸, 부전공전환, 부전공교체, 부전공수정, 부전공변경하려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합전공변경, 융합전공바꾸, 융합전공전환, 융합전공교체, 융합전공수정, 융합전공변경하려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합부전공변경, 융합부전공바꾸, 융합부전공전환, 융합부전공교체, 융합부전공수정, 융합부전공변경하려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연계전공변경, 연계전공바꾸, 연계전공전환, 연계전공교체, 연계전공수정, 연계전공변경하려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소단위전공과정변경, 소단위전공과정바꾸, 소단위전공과정전환, 소단위전공과정교체, 소단위전공과정수정, 소단위전공과정변경하려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로디그리변경, 마이크로디그리바꾸, 마이크로디그리전환, 마이크로디그리교체, 마이크로디그리수정, 마이크로디그리변경하려</t>
+    <t>다전공변경, 다전공을변경, 다전공바꾸, 다전공을바꾸, 다전공전환, 다전공을전환, 다전공교체, 다전공을교체, 다전공수정, 다전공을수정, 다전공변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공변경, 복수전공을변경, 복수전공바꾸, 복수전공을바꾸, 복수전공전환, 복수전공을전환, 복수전공교체, 복수전공을교체, 복수전공수정, 복수전공을수정, 복수전공변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공변경, 부전공을변경, 부전공바꾸, 부전공을바꾸, 부전공전환, 부전공을전환, 부전공교체, 부전공을교체, 부전공수정, 부전공을수정, 부전공변경하려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공변경, 융합전공바꾸, 융합전공전환, 융합전공교체, 융합전공수정, 융합전공변경하려, 융합전공을변경, 융합전공을바꾸, 융합전공을전환, 융합전공을교체, 융합전공을수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합부전공변경, 융합부전공바꾸, 융합부전공전환, 융합부전공교체, 융합부전공수정, 융합부전공변경하려, 융합부전공을변경, 융합부전공을바꾸, 융합부전공을전환, 융합부전공을교체, 융합부전공을수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공변경, 연계전공바꾸, 연계전공전환, 연계전공교체, 연계전공수정, 연계전공변경하려, 연계전공을변경, 연계전공을바꾸, 연계전공을전환, 연계전공을교체, 연계전공을수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정변경, 소단위전공과정바꾸, 소단위전공과정전환, 소단위전공과정교체, 소단위전공과정수정, 소단위전공과정변경하려, 소단위전공과정을변경, 소단위전공과정을바꾸, 소단위전공과정을전환, 소단위전공과정을교체, 소단위전공과정을수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리변경, 마이크로디그리바꾸, 마이크로디그리전환, 마이크로디그리교체, 마이크로디그리수정, 마이크로디그리변경하려, 마이크로디그리을변경, 마이크로디그리을바꾸, 마이크로디그리을전환, 마이크로디그리을교체, 마이크로디그리을수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B15A74A-08DD-43D6-A4C0-733CCA6E04FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA2A65A-6019-4F8C-A161-EDF3CC9404A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FAQ_MASTER" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FAQ_MASTER!$A$1:$F$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FAQ_MASTER!$A$1:$F$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="208">
   <si>
     <t>복수전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 본인 전공과목과 중복 인정이 가능하며, 3개 교과목 이상 이수 시 연계전공 신청도 가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원전공 이외에 다른 전공의 전공과정을 이수하여 2개의 학위를 인정받는 제도. 원 전공 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상), 복수전공 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전공 신청 전에 이수한 교과목도 해당 전공으로 소급 인정됨. 공통으로 성적증명서 상단에 표시가 되며, 학위증에 다전공명 표시됨. 전공별 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 융합부전공은 전필과목 포함 27학점 이상 이수(원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 소단위전공과정은 마이크로디그리와 동일한 제도임. 본인 전공과목과 중복 인정이 가능해 효율적으로 이수할 수 있으며, 3개 교과목 이상 이수 시 연계전공 신청도 가능. 원전공 졸업요구학점, 소단위전공과정별 8~12학점. 소단위전공과정은 이수건수 제한이 없음. 이수 시 별도의 이수증 발급. 어떤 전공이 있는지 궁금하시다면?"마이크로디그리 전공 목록"을 물어보세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목록, 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,6 +729,30 @@
   </si>
   <si>
     <t>마이크로디그리변경, 마이크로디그리바꾸, 마이크로디그리전환, 마이크로디그리교체, 마이크로디그리수정, 마이크로디그리변경하려, 마이크로디그리을변경, 마이크로디그리을바꾸, 마이크로디그리을전환, 마이크로디그리을교체, 마이크로디그리을수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 복수전공은 원전공/복수전공의 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상), 2. 부전공은 원전공의 전필과목 포함 51학점 이상(법학전공을 제외한 인문사회계열은 48학점 이상), 부전공의 전필과목 포함 27학점 이상, 3. 융합전공은 원전공의 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상), 융합전공의 전필과목 포함 39학점 이상, 4. 융합부전공은 원전공의 전필과목 포함 51학점 이상(법학전공을 제외한 인문사회계열은 48학점 이상), 융합부전공의 전필과목 포함 27학점 이상, 5. 연계전공은 연계전공의 교과목 9학점 이상, 6. 소단위전공과정(마이크로디그리)은 과정별 8~12학점.  전공 신청 전에 이수한 교과목도 해당 전공으로 소급 인정됨. 공통으로 성적증명서 상단에 표시가 되며, 학위증에 다전공명 표시됨. 전공별 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 본인 전공과목과 중복 인정이 가능하며, 3개 교과목 이상 이수 시 연계전공 신청도 가능. 다른 다전공도 중복으로 신청 가능. 복수전공,부전공,융합전공,융합부전공, 연계전공 중 1개만 참여 가능, 마이크로디그리는 제한 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리전공, 마이크로디그리의전공, 마이크로디그리전공은, 마이크로디그리전공은무엇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정전공, 소단위전공과정의전공, 소단위전공, 소단위의전공 소단위전공은무엇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정(마이크로디그리)는 식품품질관리 MD, 반려동물 MD 등 37개의 과정이 있음. 과정별로 궁금하면 마이크로디그리 목록 알려줘라고 질문. 더 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 소단위전공과정은 마이크로디그리와 동일한 제도임. 본인 전공과목과 중복 인정이 가능해 효율적으로 이수할 수 있으며, 3개 교과목 이상 이수 시 연계전공 신청도 가능. 원전공 졸업요구학점, 소단위전공과정별 8~12학점. 소단위전공과정은 이수건수 제한이 없음. 이수 시 별도의 이수증 발급. 어떤 전공이 있는지 궁금하시다면? 마이크로디그리 전공 목록 질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93685F3E-3127-4ECC-91E0-B0250884663A}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1114,7 +1126,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>61</v>
@@ -1131,13 +1143,13 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1151,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1171,13 +1183,13 @@
         <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1191,13 +1203,13 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1211,13 +1223,13 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1231,13 +1243,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1251,13 +1263,13 @@
         <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1271,13 +1283,13 @@
         <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1291,7 +1303,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -1309,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
@@ -1327,7 +1339,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -1345,7 +1357,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -1363,7 +1375,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -1381,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
@@ -1399,10 +1411,10 @@
         <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>94</v>
@@ -1419,10 +1431,10 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>94</v>
@@ -1439,7 +1451,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -1457,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -1475,7 +1487,7 @@
         <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -1493,7 +1505,7 @@
         <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
@@ -1511,7 +1523,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -1529,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
@@ -1547,10 +1559,10 @@
         <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>100</v>
@@ -1567,10 +1579,10 @@
         <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>100</v>
@@ -1587,7 +1599,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -1605,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -1623,7 +1635,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -1641,7 +1653,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -1659,7 +1671,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1677,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
@@ -1695,10 +1707,10 @@
         <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>81</v>
@@ -1715,10 +1727,10 @@
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>81</v>
@@ -1735,11 +1747,11 @@
         <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1753,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
@@ -1771,7 +1783,7 @@
         <v>63</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
@@ -1789,10 +1801,10 @@
         <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>101</v>
@@ -1809,10 +1821,10 @@
         <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>101</v>
@@ -1829,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
@@ -1847,13 +1859,13 @@
         <v>68</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1867,13 +1879,13 @@
         <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1887,7 +1899,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -1905,11 +1917,11 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1923,11 +1935,11 @@
         <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -1941,11 +1953,11 @@
         <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1959,11 +1971,11 @@
         <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -1977,16 +1989,16 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>37</v>
@@ -1995,13 +2007,13 @@
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2015,11 +2027,11 @@
         <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2033,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -2051,7 +2063,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -2069,7 +2081,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -2087,11 +2099,11 @@
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2105,11 +2117,11 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2123,10 +2135,10 @@
         <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>87</v>
@@ -2143,10 +2155,10 @@
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>87</v>
@@ -2157,17 +2169,17 @@
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -2175,17 +2187,17 @@
         <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2193,17 +2205,17 @@
         <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2211,17 +2223,17 @@
         <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2229,16 +2241,16 @@
         <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -2246,33 +2258,67 @@
         <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA2A65A-6019-4F8C-A161-EDF3CC9404A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C929DED5-3F60-4793-97D6-79A51392D311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">마이크로디그리란, 마이크로디그리가뭐, 마이크로디그리가뭐야, 마이크로디그리제도, 마이크로디그리설명, 마디란, 마디가뭐, 마이크로디그리무엇, 마이크로디그리알려, 마이크로디그리개념, 마이크로디그리정의, microdegree뭐, 소단위전공과정이란, 소단위전공과정뭐 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>졸업 유예와 조기 졸업은 2월 졸업은 1월에 접수, 8월 졸업은 7월에 접수. 관련은 학사지원팀 031-670-5035 연락</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,24 +612,6 @@
     <t>마이크로디그리차이, 마이크로디그리비교, 마이크로디그리다른점, 마이크로디그리vs, 마이크로디그리뭐가, 마이크로디그리어떤차이, 마이크로디그리어떤</t>
   </si>
   <si>
-    <t>다전공제도, 다전공뭐야, 다전공무엇, 다전공알려줘, 다전공설명, 다전공개념, 다전공정의</t>
-  </si>
-  <si>
-    <t>복수전공복수전공, 복수전공제도, 복수전공뭐야, 복수전공무엇, 복수전공알려줘, 복수전공설명, 복수전공개념, 복수전공정의</t>
-  </si>
-  <si>
-    <t>부전공부전공, 부전공제도, 부전공뭐야, 부전공무엇, 부전공알려줘, 부전공설명, 부전공개념, 부전공정의</t>
-  </si>
-  <si>
-    <t>융합전공융합전공, 융합전공제도, 융합전공뭐야, 융합전공무엇, 융합전공알려줘, 융합전공설명, 융합전공개념, 융합전공정의</t>
-  </si>
-  <si>
-    <t>융합부전공융합부전공, 융합부전공제도, 융합부전공뭐야, 융합부전공무엇, 융합부전공알려줘, 융합부전공설명, 융합부전공개념, 융합부전공정의</t>
-  </si>
-  <si>
-    <t>연계전공연계전공, 연계전공제도, 연계전공뭐야, 연계전공무엇, 연계전공알려줘, 연계전공설명, 연계전공개념, 연계전공정의</t>
-  </si>
-  <si>
     <t>다전공학점, 다전공몇학점, 다전공이수, 다전공이수학점, 다전공필수학점, 다전공졸업학점</t>
   </si>
   <si>
@@ -753,6 +731,34 @@
   </si>
   <si>
     <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 소단위전공과정은 마이크로디그리와 동일한 제도임. 본인 전공과목과 중복 인정이 가능해 효율적으로 이수할 수 있으며, 3개 교과목 이상 이수 시 연계전공 신청도 가능. 원전공 졸업요구학점, 소단위전공과정별 8~12학점. 소단위전공과정은 이수건수 제한이 없음. 이수 시 별도의 이수증 발급. 어떤 전공이 있는지 궁금하시다면? 마이크로디그리 전공 목록 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공제도, 다전공뭐야, 다전공무엇, 다전공알려줘, 다전공설명, 다전공개념, 다전공정의, 다전공이뭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공복수전공, 복수전공제도, 복수전공뭐야, 복수전공무엇, 복수전공알려줘, 복수전공설명, 복수전공개념, 복수전공정의, 복수전공이뭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공부전공, 부전공제도, 부전공뭐야, 부전공무엇, 부전공알려줘, 부전공설명, 부전공개념, 부전공정의, 부전공이뭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공융합전공, 융합전공제도, 융합전공뭐야, 융합전공무엇, 융합전공알려줘, 융합전공설명, 융합전공개념, 융합전공정의, 융합전공이뭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합부전공융합부전공, 융합부전공제도, 융합부전공뭐야, 융합부전공무엇, 융합부전공알려줘, 융합부전공설명, 융합부전공개념, 융합부전공정의, 융합부전공이뭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공연계전공, 연계전공제도, 연계전공뭐야, 연계전공무엇, 연계전공알려줘, 연계전공설명, 연계전공개념, 연계전공정의, 연계전공이뭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리란, 마이크로디그리가뭐, 마이크로디그리가뭐야, 마이크로디그리제도, 마이크로디그리설명, 마디란, 마디가뭐, 마이크로디그리무엇, 마이크로디그리알려, 마이크로디그리개념, 마이크로디그리정의, microdegree뭐, 소단위전공과정이란, 소단위전공과정뭐, 소단위전공과정이뭐, 소단위가뭐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1149,7 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>112</v>
@@ -1163,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>112</v>
@@ -1183,7 +1189,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>112</v>
@@ -1203,7 +1209,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>112</v>
@@ -1223,7 +1229,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>112</v>
@@ -1243,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>112</v>
@@ -1263,7 +1269,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>112</v>
@@ -1283,7 +1289,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>112</v>
@@ -1303,7 +1309,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -1321,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
@@ -1339,7 +1345,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -1357,7 +1363,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -1375,7 +1381,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -1393,7 +1399,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
@@ -1411,7 +1417,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>133</v>
@@ -1431,7 +1437,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>133</v>
@@ -1451,7 +1457,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -1469,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -1487,7 +1493,7 @@
         <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -1505,7 +1511,7 @@
         <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
@@ -1523,7 +1529,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -1541,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
@@ -1559,7 +1565,7 @@
         <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>133</v>
@@ -1579,7 +1585,7 @@
         <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>133</v>
@@ -1599,7 +1605,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -1617,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -1635,7 +1641,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -1653,7 +1659,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -1671,7 +1677,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1689,7 +1695,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
@@ -1707,7 +1713,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>133</v>
@@ -1727,7 +1733,7 @@
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>133</v>
@@ -1747,11 +1753,11 @@
         <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1765,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
@@ -1783,7 +1789,7 @@
         <v>63</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
@@ -1801,7 +1807,7 @@
         <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>124</v>
@@ -1821,7 +1827,7 @@
         <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>125</v>
@@ -1841,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
@@ -1859,13 +1865,13 @@
         <v>68</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1879,13 +1885,13 @@
         <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1899,7 +1905,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -1917,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -1935,7 +1941,7 @@
         <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -1953,7 +1959,7 @@
         <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -1971,7 +1977,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -1989,7 +1995,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -1998,7 +2004,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>37</v>
@@ -2007,13 +2013,13 @@
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2027,11 +2033,11 @@
         <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2045,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -2063,7 +2069,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -2081,7 +2087,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -2099,7 +2105,7 @@
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -2117,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
@@ -2135,7 +2141,7 @@
         <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>133</v>
@@ -2155,7 +2161,7 @@
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>133</v>
@@ -2193,11 +2199,11 @@
         <v>126</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2211,7 +2217,7 @@
         <v>126</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -2229,11 +2235,11 @@
         <v>126</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2247,7 +2253,7 @@
         <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>128</v>
@@ -2264,7 +2270,7 @@
         <v>126</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>120</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -2295,13 +2301,13 @@
         <v>68</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
@@ -2312,13 +2318,13 @@
         <v>67</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C929DED5-3F60-4793-97D6-79A51392D311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3FF8AD-A697-4E6F-97E9-7F0E9C92D413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,9 +612,6 @@
     <t>마이크로디그리차이, 마이크로디그리비교, 마이크로디그리다른점, 마이크로디그리vs, 마이크로디그리뭐가, 마이크로디그리어떤차이, 마이크로디그리어떤</t>
   </si>
   <si>
-    <t>다전공학점, 다전공몇학점, 다전공이수, 다전공이수학점, 다전공필수학점, 다전공졸업학점</t>
-  </si>
-  <si>
     <t>복수전공학점, 복수전공몇학점, 복수전공이수, 복수전공이수학점, 복수전공필수학점, 복수전공졸업학점</t>
   </si>
   <si>
@@ -633,9 +630,6 @@
     <t>소단위전공과정학점, 소단위전공과정몇학점, 소단위전공과정이수, 소단위전공과정이수학점, 소단위전공과정필수학점, 소단위전공과정졸업학점</t>
   </si>
   <si>
-    <t>마이크로디그리학점, 마이크로디그리몇학점, 마이크로디그리이수, 마이크로디그리이수학점, 마이크로디그리필수학점, 마이크로디그리졸업학점</t>
-  </si>
-  <si>
     <t>유예</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,10 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이크로디그리전공, 마이크로디그리의전공, 마이크로디그리전공은, 마이크로디그리전공은무엇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소단위전공과정전공, 소단위전공과정의전공, 소단위전공, 소단위의전공 소단위전공은무엇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,7 +748,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이크로디그리란, 마이크로디그리가뭐, 마이크로디그리가뭐야, 마이크로디그리제도, 마이크로디그리설명, 마디란, 마디가뭐, 마이크로디그리무엇, 마이크로디그리알려, 마이크로디그리개념, 마이크로디그리정의, microdegree뭐, 소단위전공과정이란, 소단위전공과정뭐, 소단위전공과정이뭐, 소단위가뭐</t>
+    <t>다전공학점, 다전공몇학점, 다전공이수, 다전공이수학점, 다전공필수학점, 다전공졸업학점, 다전공별이수학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리란, 마이크로디그리가뭐, 마이크로디그리가뭐야, 마이크로디그리제도, 마이크로디그리설명, 마디란, 마디가뭐, 마이크로디그리무엇, 마이크로디그리알려, 마이크로디그리개념, 마이크로디그리정의, microdegree뭐, 소단위전공과정이란, 소단위전공과정뭐, 소단위전공과정이뭐, 소단위가뭐, 마이크로디그리에대해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리학점, 마이크로디그리몇학점, 마이크로디그리이수, 마이크로디그리이수학점, 마이크로디그리필수학점, 마이크로디그리졸업학점, 마이크로디그리는몇학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리전공, 마이크로디그리의전공, 마이크로디그리전공은, 마이크로디그리전공은무엇, 마이크로디그리는어떤과정, 마이크로디그리과정, 마이크로디그리의과정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93685F3E-3127-4ECC-91E0-B0250884663A}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1605,7 +1607,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -1623,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -1641,7 +1643,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -1659,7 +1661,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -1677,7 +1679,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1695,7 +1697,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
@@ -1713,7 +1715,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>133</v>
@@ -1733,7 +1735,7 @@
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>133</v>
@@ -1757,7 +1759,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1871,7 +1873,7 @@
         <v>133</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1891,7 +1893,7 @@
         <v>133</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1905,7 +1907,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -1941,7 +1943,7 @@
         <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -1959,7 +1961,7 @@
         <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -1977,7 +1979,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -1995,7 +1997,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -2004,7 +2006,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>37</v>
@@ -2013,13 +2015,13 @@
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2033,11 +2035,11 @@
         <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2051,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -2069,7 +2071,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -2087,7 +2089,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
@@ -2105,7 +2107,7 @@
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
@@ -2123,7 +2125,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
@@ -2141,7 +2143,7 @@
         <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>133</v>
@@ -2161,7 +2163,7 @@
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>133</v>
@@ -2199,7 +2201,7 @@
         <v>126</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -2217,7 +2219,7 @@
         <v>126</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -2235,11 +2237,11 @@
         <v>126</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2253,7 +2255,7 @@
         <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>128</v>
@@ -2270,7 +2272,7 @@
         <v>126</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>120</v>
@@ -2278,16 +2280,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>134</v>
@@ -2301,13 +2303,13 @@
         <v>68</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
@@ -2318,13 +2320,13 @@
         <v>67</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3FF8AD-A697-4E6F-97E9-7F0E9C92D413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189092CA-4B1C-4550-A494-CDDC5A42AC61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,18 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 복수전공은 전필과목 포함 39학점 이상 이수(법학전공을 제외한 인문사회계열은 36학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 복수전공 둘다 합격해야 함. 인문계열 전공 학생이 자연/공학계열 전공을 선택하면 총 졸업학점 수가 120학점에서 130학점으로 변경됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 부전공은 전필과목 포함 27학점 이상 이수(원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 융합전공은 전필과목 포함 39학점 이상 이수(원전공은 법학전공을 제외한 인문사회계열은 36학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 융합전공 둘다 합격해야 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소단위전공과정별로 편성된 과목(3~4과목)을 이수. 원전공 전공과목과 동일한 교과목은 원전공의 이수구분으로, 타 전공의 교과목의 경우 자유선택으로 인정. 교양과목은 원전공의 이수구분을 따름. 소단위전공과정은 이수건수 제한 없음. 이수 시 별도의 이수증을 발급.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,14 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 융합부전공은 전필과목 포함 27학점 이상 이수(원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 78학점 이상 이수하여야 하고 연계전공은 전공 교과목 9학점 이상 이수(원전공은 법학전공을 제외한 인문사회계열은 72학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원전공 기준의 등록금을 납부하면 됨. 다전공을 신청해도 추가 등록금을 내지 않음. 다전공 제도 참여시 별도의 장학금 지원은 현재 없음. 등록금 고지, 환불 등에 관한 사항은 재무팀(031-670-5472)으로 연락.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매 학년도 전기 졸업식은 2월 중순, 후기 졸업식은 8월 중순에 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다전공신청, 다전공기간, 다전공신청기간, 다전공언제, 다전공마감, 다전공신청일, 다전공접수, 다전공접수일, 다전공몇월, 다전공일정, 다전공날짜, 다전공데드라인, 다전공시기, 다전공방법, 다전공신청방법, 다전공어떻게, 다전공절차, 다전공신청과정, 다전공과정, 다전공신청서, 다전공서류, 다전공제출, 다전공지원, 다전공지원방법, 다전공등록</t>
   </si>
   <si>
@@ -704,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 복수전공은 원전공/복수전공의 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상), 2. 부전공은 원전공의 전필과목 포함 51학점 이상(법학전공을 제외한 인문사회계열은 48학점 이상), 부전공의 전필과목 포함 27학점 이상, 3. 융합전공은 원전공의 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상), 융합전공의 전필과목 포함 39학점 이상, 4. 융합부전공은 원전공의 전필과목 포함 51학점 이상(법학전공을 제외한 인문사회계열은 48학점 이상), 융합부전공의 전필과목 포함 27학점 이상, 5. 연계전공은 연계전공의 교과목 9학점 이상, 6. 소단위전공과정(마이크로디그리)은 과정별 8~12학점.  전공 신청 전에 이수한 교과목도 해당 전공으로 소급 인정됨. 공통으로 성적증명서 상단에 표시가 되며, 학위증에 다전공명 표시됨. 전공별 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 본인 전공과목과 중복 인정이 가능하며, 3개 교과목 이상 이수 시 연계전공 신청도 가능. 다른 다전공도 중복으로 신청 가능. 복수전공,부전공,융합전공,융합부전공, 연계전공 중 1개만 참여 가능, 마이크로디그리는 제한 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -724,10 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다전공제도, 다전공뭐야, 다전공무엇, 다전공알려줘, 다전공설명, 다전공개념, 다전공정의, 다전공이뭐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>복수전공복수전공, 복수전공제도, 복수전공뭐야, 복수전공무엇, 복수전공알려줘, 복수전공설명, 복수전공개념, 복수전공정의, 복수전공이뭐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,11 +724,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이크로디그리학점, 마이크로디그리몇학점, 마이크로디그리이수, 마이크로디그리이수학점, 마이크로디그리필수학점, 마이크로디그리졸업학점, 마이크로디그리는몇학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마이크로디그리전공, 마이크로디그리의전공, 마이크로디그리전공은, 마이크로디그리전공은무엇, 마이크로디그리는어떤과정, 마이크로디그리과정, 마이크로디그리의과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 학년도 전기 졸업식은 2월 중순, 후기 졸업식은 8월 중순에 진행. 정확한 일정은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5036 연락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 복수전공은 전필과목 포함 39학점 이상 이수, 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 복수전공 둘다 합격해야 함. 인문계열 전공 학생이 자연/공학계열 전공을 선택하면 총 졸업학점 수가 120학점에서 130학점으로 변경됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 부전공은 전필과목 포함 27학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 융합전공은 전필과목 포함 39학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 융합전공 둘다 합격해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 융합부전공은 전필과목 포함 27학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 78학점 이상 이수하여야 하고 연계전공은 전공 교과목 9학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 72학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 복수전공 제도는 원전공 및 복수전공의 전필과목 포함 39학점 이상 이수. 법학전공을 제외한 인문사회계열은 36학점 이상 이수, 2. 부전공 제도는 원전공은 전필과목 포함 51학점 이상 이수, 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 부전공은 전필과목 포함 27학점 이상 이수, 3. 융합전공 제도는 원전공은 전필과목 포함 39학점 이상 이수, 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 융합전공은 전필과목 포함 39학점 이상 이수, 4. 융합부전공 제도는 원전공은 전필과목 포함 51학점 이상 이수, 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 융합부전공 제도는 전필과목 포함 27학점 이상 이수, 5. 연계전공 제도는 연계전공의 교과목 9학점 이상 이수, 6. 소단위전공과정(마이크로디그리) 제도는 과정별로 정해진 3~4과목 이수. 전공 신청 전에 이수한 교과목도 해당 전공으로 소급 인정됨. 공통으로 성적증명서 상단에 표시가 되며, 학위증에 다전공명 표시됨. 전공별 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공제도, 다전공뭐, 다전공제도뭐, 다전공무엇, 다전공제도무엇, 다전공알려, 다전공제도알려, 다전공설명, 다전공제도에대해설명, 다전공제도에대해알려, 다전공의개념, 다전공개념, 다전공정의, 다전공의정의가뭐, 다전공이뭐, 유연학사제도가뭐, 유연학사제도뭐, 유연학사제도에대해설명, 유연학사제도가무엇, 유연학사제도가뭐, 유연학사제도개념, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도알려, 유연학사제도에대해알려, 유연학사제도설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리학점, 마이크로디그리몇학점, 마이크로디그리이수, 마이크로디그리이수학점, 마이크로디그리필수학점, 마이크로디그리졸업학점, 마이크로디그리는몇학점, 마이크로디그리의이수학점, 마이크로디그리과정의이수학점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93685F3E-3127-4ECC-91E0-B0250884663A}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1134,7 +1134,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>61</v>
@@ -1151,13 +1151,13 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1171,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1191,13 +1191,13 @@
         <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1211,13 +1211,13 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1231,13 +1231,13 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1251,13 +1251,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1271,13 +1271,13 @@
         <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1291,13 +1291,13 @@
         <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1311,11 +1311,11 @@
         <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1329,11 +1329,11 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1347,11 +1347,11 @@
         <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1365,11 +1365,11 @@
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1383,11 +1383,11 @@
         <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1401,11 +1401,11 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1419,13 +1419,13 @@
         <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1439,13 +1439,13 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1459,7 +1459,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -1477,11 +1477,11 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1495,11 +1495,11 @@
         <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1513,11 +1513,11 @@
         <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1531,11 +1531,11 @@
         <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1549,11 +1549,11 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1567,13 +1567,13 @@
         <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1587,13 +1587,13 @@
         <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1607,7 +1607,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -1643,7 +1643,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -1661,7 +1661,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -1679,7 +1679,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1697,7 +1697,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
@@ -1715,10 +1715,10 @@
         <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>81</v>
@@ -1735,10 +1735,10 @@
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>81</v>
@@ -1755,11 +1755,11 @@
         <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
@@ -1791,7 +1791,7 @@
         <v>63</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
@@ -1809,13 +1809,13 @@
         <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1829,13 +1829,13 @@
         <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1849,11 +1849,11 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -1867,13 +1867,13 @@
         <v>68</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1887,13 +1887,13 @@
         <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1907,7 +1907,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -1925,11 +1925,11 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1943,11 +1943,11 @@
         <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -1961,11 +1961,11 @@
         <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1979,11 +1979,11 @@
         <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -1997,16 +1997,16 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>37</v>
@@ -2015,13 +2015,13 @@
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2035,11 +2035,11 @@
         <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2053,11 +2053,11 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2071,11 +2071,11 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2089,11 +2089,11 @@
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2107,11 +2107,11 @@
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2125,11 +2125,11 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2143,13 +2143,13 @@
         <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -2163,13 +2163,13 @@
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -2177,17 +2177,17 @@
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -2195,17 +2195,17 @@
         <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2213,17 +2213,17 @@
         <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2231,17 +2231,17 @@
         <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2249,16 +2249,16 @@
         <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -2266,33 +2266,33 @@
         <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -2303,13 +2303,13 @@
         <v>68</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
@@ -2320,13 +2320,13 @@
         <v>67</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189092CA-4B1C-4550-A494-CDDC5A42AC61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11F219E-49B9-445E-8801-4AB03B00E142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,9 +603,6 @@
     <t>연계전공학점, 연계전공몇학점, 연계전공이수, 연계전공이수학점, 연계전공필수학점, 연계전공졸업학점</t>
   </si>
   <si>
-    <t>소단위전공과정학점, 소단위전공과정몇학점, 소단위전공과정이수, 소단위전공과정이수학점, 소단위전공과정필수학점, 소단위전공과정졸업학점</t>
-  </si>
-  <si>
     <t>유예</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -760,7 +757,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이크로디그리학점, 마이크로디그리몇학점, 마이크로디그리이수, 마이크로디그리이수학점, 마이크로디그리필수학점, 마이크로디그리졸업학점, 마이크로디그리는몇학점, 마이크로디그리의이수학점, 마이크로디그리과정의이수학점</t>
+    <t>마이크로디그리학점, 마이크로디그리몇학점, 마이크로디그리이수, 마이크로디그리이수학점, 마이크로디그리필수학점, 마이크로디그리졸업학점, 마이크로디그리는몇학점, 마이크로디그리의이수학점, 마이크로디그리과정의이수학점, 마이크로디그리과정이수학점, 마이크로디그리과정이수, 마이크로디그리과정의이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정학점, 소단위전공과정몇학점, 소단위전공과정이수, 소단위전공과정이수학점, 소단위전공과정필수학점, 소단위전공과정졸업학점, 소단위전공과정은몇학점, 소단위전공과정의이수학점, 소단위전공과정의이수학점, 소단위전공과정의이수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93685F3E-3127-4ECC-91E0-B0250884663A}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1608,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -1625,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -1643,7 +1644,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -1661,7 +1662,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -1679,7 +1680,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1697,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
@@ -1715,7 +1716,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>128</v>
@@ -1735,7 +1736,7 @@
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>128</v>
@@ -1759,7 +1760,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1873,7 +1874,7 @@
         <v>128</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1893,7 +1894,7 @@
         <v>128</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1907,7 +1908,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -1925,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -1943,7 +1944,7 @@
         <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -1961,7 +1962,7 @@
         <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -1979,7 +1980,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -1997,7 +1998,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -2006,7 +2007,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>37</v>
@@ -2015,13 +2016,13 @@
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2035,11 +2036,11 @@
         <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2057,7 +2058,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2075,7 +2076,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2093,7 +2094,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2111,7 +2112,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2129,7 +2130,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2143,7 +2144,7 @@
         <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>128</v>
@@ -2163,7 +2164,7 @@
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -2201,11 +2202,11 @@
         <v>121</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2219,7 +2220,7 @@
         <v>121</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -2237,11 +2238,11 @@
         <v>121</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2255,7 +2256,7 @@
         <v>121</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>123</v>
@@ -2272,7 +2273,7 @@
         <v>121</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>115</v>
@@ -2280,16 +2281,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>129</v>
@@ -2303,13 +2304,13 @@
         <v>68</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
@@ -2320,13 +2321,13 @@
         <v>67</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11F219E-49B9-445E-8801-4AB03B00E142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243E7FEC-EF0C-4E43-9F05-9E62A198CDE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="211">
   <si>
     <t>복수전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,6 +762,18 @@
   </si>
   <si>
     <t>소단위전공과정학점, 소단위전공과정몇학점, 소단위전공과정이수, 소단위전공과정이수학점, 소단위전공과정필수학점, 소단위전공과정졸업학점, 소단위전공과정은몇학점, 소단위전공과정의이수학점, 소단위전공과정의이수학점, 소단위전공과정의이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정별로 편성된 과목 3~4과목(8~12학점)을 이수. 원전공 전공과목과 동일한 교과목은 원전공의 이수구분으로, 타 전공의 교과목의 경우 자유선택으로 인정. 교양과목은 원전공의 이수구분을 따름. 소단위전공과정은 이수건수 제한 없음. 이수 시 별도의 이수증을 발급.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적확인, 이수학점확인, 내성적확인, 수강신청확인, 내수강신청확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지의 성적, 이수학점 등 확인은 학사시스템 https://info.hknu.ac.kr 또는 학사지원팀 031-670-5032 연락</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93685F3E-3127-4ECC-91E0-B0250884663A}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2170,7 +2182,7 @@
         <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -2328,6 +2340,17 @@
       </c>
       <c r="F65" s="2" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243E7FEC-EF0C-4E43-9F05-9E62A198CDE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C999242-08AC-4B5A-81D7-23CCC61C8152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="210">
   <si>
     <t>복수전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소단위전공과정별로 편성된 과목(3~4과목)을 이수. 원전공 전공과목과 동일한 교과목은 원전공의 이수구분으로, 타 전공의 교과목의 경우 자유선택으로 인정. 교양과목은 원전공의 이수구분을 따름. 소단위전공과정은 이수건수 제한 없음. 이수 시 별도의 이수증을 발급.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 제도는 동일하게 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,15 +761,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소단위전공과정별로 편성된 과목 3~4과목(8~12학점)을 이수. 원전공 전공과목과 동일한 교과목은 원전공의 이수구분으로, 타 전공의 교과목의 경우 자유선택으로 인정. 교양과목은 원전공의 이수구분을 따름. 소단위전공과정은 이수건수 제한 없음. 이수 시 별도의 이수증을 발급.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성적확인, 이수학점확인, 내성적확인, 수강신청확인, 내수강신청확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>현재까지의 성적, 이수학점 등 확인은 학사시스템 https://info.hknu.ac.kr 또는 학사지원팀 031-670-5032 연락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리의 과정별로 편성된 과목 3~4과목(8~12학점)을 이수. 원전공 전공과목과 동일한 교과목은 원전공의 이수구분으로, 타 전공의 교과목의 경우 자유선택으로 인정. 교양과목은 원전공의 이수구분을 따름. 소단위전공과정은 이수건수 제한 없음. 이수 시 별도의 이수증을 발급. 세부 과정이 궁금하면 마이크로디그리 목록 알려줘라고 질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,7 +1115,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1147,7 +1143,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>61</v>
@@ -1164,13 +1160,13 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1184,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1204,13 +1200,13 @@
         <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1224,13 +1220,13 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1244,13 +1240,13 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1264,13 +1260,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1284,13 +1280,13 @@
         <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1304,13 +1300,13 @@
         <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1324,11 +1320,11 @@
         <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1342,11 +1338,11 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1360,11 +1356,11 @@
         <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1378,11 +1374,11 @@
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1396,11 +1392,11 @@
         <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1414,11 +1410,11 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1432,13 +1428,13 @@
         <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1452,13 +1448,13 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1472,7 +1468,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -1490,11 +1486,11 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1508,11 +1504,11 @@
         <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1526,11 +1522,11 @@
         <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1544,11 +1540,11 @@
         <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1562,11 +1558,11 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1580,13 +1576,13 @@
         <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1600,13 +1596,13 @@
         <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1620,7 +1616,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -1638,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -1656,7 +1652,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -1674,7 +1670,7 @@
         <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -1692,7 +1688,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1710,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
@@ -1728,10 +1724,10 @@
         <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>81</v>
@@ -1748,10 +1744,10 @@
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>81</v>
@@ -1768,11 +1764,11 @@
         <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1786,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
@@ -1804,7 +1800,7 @@
         <v>63</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
@@ -1822,13 +1818,13 @@
         <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1842,13 +1838,13 @@
         <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1862,11 +1858,11 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -1880,13 +1876,13 @@
         <v>68</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1900,13 +1896,13 @@
         <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1920,7 +1916,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -1938,11 +1934,11 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1956,11 +1952,11 @@
         <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -1974,11 +1970,11 @@
         <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1992,11 +1988,11 @@
         <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -2010,16 +2006,16 @@
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>37</v>
@@ -2028,13 +2024,13 @@
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2048,11 +2044,11 @@
         <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2066,11 +2062,11 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2084,11 +2080,11 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2102,11 +2098,11 @@
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2120,11 +2116,11 @@
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2138,11 +2134,11 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2156,13 +2152,13 @@
         <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -2176,13 +2172,13 @@
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -2190,17 +2186,17 @@
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -2208,17 +2204,17 @@
         <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2226,17 +2222,17 @@
         <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2244,17 +2240,17 @@
         <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2262,16 +2258,16 @@
         <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -2279,33 +2275,33 @@
         <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -2316,13 +2312,13 @@
         <v>68</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
@@ -2333,24 +2329,24 @@
         <v>67</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C66" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA86EA2D-EA74-4C41-B13D-C9377B96987E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834E5525-CD10-4AD7-ACF6-3EDF41E0592E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,15 +463,9 @@
     <t>마이크로디그리학점, 마이크로디그리몇학점, 마이크로디그리이수, 마이크로디그리이수학점, 마이크로디그리필수학점, 마이크로디그리졸업학점, 마이크로디그리는몇학점, 마이크로디그리의이수학점, 마이크로디그리과정의이수학점, 마이크로디그리과정이수학점, 마이크로디그리과정이수, 마이크로디그리과정의이수, 마이크로디그리총학점, 마이크로디그리필요학점, 마이크로디그리이수해야할학점, 마이크로디그리학점체계, 마이크로디그리학점구조, 마이크로디그리학점계산, 마이크로디그리몇학점필요, 마이크로디그리몇학점들어야, 마이크로디그리학점기준, 마이크로디그리최소학점, 마이크로디그리필수이수, 마이크로디그리이수학점은, 마이크로디그리학점충족, 마이크로디그리학점조건, 마이크로디그리졸업요건학점, 마이크로디그리인정학점, 마이크로디그리이수학점확인</t>
   </si>
   <si>
-    <t>등록금, 수강료, 추가 등록금, 학비, 납부, 추가등록금, 감면, 면제, 장학금, 환불, 고지, 등록금 고지, 고지서, 돈, 비용, 학비얼마, 비용얼마, 추가비용, 추가학비, 더내야하나, 등록금추가, 등록금더, 등록금별도, 무료, 유료, 돈얼마</t>
-  </si>
-  <si>
     <t>졸업식, 졸업식은, 졸업식은언제, 학위수여식은, 학위수여식은언제, 졸업, 학위수여, 졸업일정, 졸업날짜, 졸업시기, 학위받는날, 언제졸업, 졸업하는날</t>
   </si>
   <si>
-    <t>학점교류, 학점인정, 이수구분, 계절학기, 타대학, 타교, 다른학교, 학점인정방법, 학점인정되나, 인정받나, 교환학생, 교류학점, 타교학점, 계절학기신청, 계절학기는, 여름학기, 겨울학기</t>
-  </si>
-  <si>
     <t>성적처리, 수강, 수강철회, 수강신청, 수강취소, 수강변경, 수강정정, 수강신청방법, 철회방법, 철회가능, 드랍, 수강드랍, 과목취소, 성적이상, 성적문의, 성적정정</t>
   </si>
   <si>
@@ -596,9 +590,6 @@
   </si>
   <si>
     <t>증명서 발급, 전과(전공변경), 휴복학, 재입학 관련은 학사지원팀 031-670-5033 연락</t>
-  </si>
-  <si>
-    <t>학점교류, 계절학기 등 관련은 학사지원팀 031-670-5034 연락</t>
   </si>
   <si>
     <t>성적 처리, 수강 관련은 학사지원팀 031-670-5032 연락</t>
@@ -658,6 +649,18 @@
   </si>
   <si>
     <t>성적확인, 성적확인하려, 성적확인하고싶, 성적확인하고, 성적확인하려, 이수학점확인, 내성적확인, 내성적확인하고싶, 수강신청확인, 수강신청확인하고싶, 수강신청내역확인하려, 수강신청내역, 내수강신청확인, 성적조회, 성적조회하려, 성적보기, 성적어떻게봐, 성적어디서봐, 성적어디서확인, 내성적조회, 내성적보기, 학점확인, 학점조회, 내학점확인, 내학점조회, 이수학점조회, 총이수학점확인, 총이수학점조회, 취득학점확인, 취득학점조회, 들은학점확인, 이수한학점확인, 내이수학점확인, 내이수학점조회, 수강내역확인, 수강내역조회, 수강과목확인, 수강과목조회, 들은과목확인, 수강확인, 수강조회, 내수강내역확인, 내수강과목확인, 수강신청내역조회, 어떤과목들었, 무슨과목들었는지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록금, 수강료, 추가 등록금, 학비, 납부, 추가등록금, 감면, 면제, 장학금, 환불, 고지, 등록금고지, 고지서, 학비얼마, 비용얼마, 추가비용, 추가학비, 더내야하나, 등록금추가, 등록금더, 등록금별도, 돈얼마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점교류, 학점인정, 이수구분, 계절학기, 타대학, 타교, 다른학교, 학점인정방법, 학점인정되나, 인정받나, 교환학생, 교류학점, 타교학점, 계절학기신청, 계절학기는, 여름학기, 겨울학기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 대학 학점교류, 계절학기 등 관련은 학사지원팀 031-670-5034 연락</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1072,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1117,10 +1120,10 @@
         <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1137,10 +1140,10 @@
         <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1157,10 +1160,10 @@
         <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1177,10 +1180,10 @@
         <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1197,10 +1200,10 @@
         <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1217,10 +1220,10 @@
         <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1237,10 +1240,10 @@
         <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1257,10 +1260,10 @@
         <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1278,7 +1281,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1296,7 +1299,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1314,7 +1317,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1332,7 +1335,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1350,7 +1353,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1368,7 +1371,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1385,10 +1388,10 @@
         <v>106</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1405,10 +1408,10 @@
         <v>107</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1426,7 +1429,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1444,7 +1447,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1462,7 +1465,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1480,7 +1483,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1498,7 +1501,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1516,7 +1519,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1533,10 +1536,10 @@
         <v>114</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1553,10 +1556,10 @@
         <v>115</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1574,7 +1577,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1592,7 +1595,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1610,7 +1613,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1628,7 +1631,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1646,7 +1649,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1664,7 +1667,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1681,10 +1684,10 @@
         <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -1701,10 +1704,10 @@
         <v>123</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1722,7 +1725,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1740,7 +1743,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1758,7 +1761,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1778,7 +1781,7 @@
         <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1798,7 +1801,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1816,7 +1819,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -1833,10 +1836,10 @@
         <v>130</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1853,10 +1856,10 @@
         <v>131</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1874,7 +1877,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -1892,7 +1895,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1910,7 +1913,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -1928,7 +1931,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1946,7 +1949,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -1964,7 +1967,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -1981,10 +1984,10 @@
         <v>138</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2002,7 +2005,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2020,7 +2023,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2038,7 +2041,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2056,7 +2059,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2074,7 +2077,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2092,7 +2095,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2109,10 +2112,10 @@
         <v>145</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -2129,10 +2132,10 @@
         <v>146</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -2146,11 +2149,11 @@
         <v>91</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -2164,11 +2167,11 @@
         <v>91</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2182,11 +2185,11 @@
         <v>91</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2200,11 +2203,11 @@
         <v>91</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2218,11 +2221,11 @@
         <v>91</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -2236,11 +2239,11 @@
         <v>91</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -2254,11 +2257,11 @@
         <v>91</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -2270,13 +2273,13 @@
         <v>89</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -2288,13 +2291,13 @@
         <v>90</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -2306,15 +2309,16 @@
         <v>91</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834E5525-CD10-4AD7-ACF6-3EDF41E0592E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505AA2AD-08A8-443A-9572-AEB24F64BC83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="212">
   <si>
     <t>faq_id</t>
   </si>
@@ -565,39 +565,6 @@
     <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 소단위전공과정은 마이크로디그리와 동일한 제도임. 본인 전공과목과 중복 인정이 가능해 효율적으로 이수할 수 있으며, 3개 교과목 이상 이수 시 연계전공 신청도 가능. 원전공 졸업요구학점, 소단위전공과정별 8~12학점. 소단위전공과정은 이수건수 제한이 없음. 이수 시 별도의 이수증 발급. 어떤 전공이 있는지 궁금하시다면? 마이크로디그리 전공 목록 질문</t>
   </si>
   <si>
-    <t>1. 복수전공 제도는 원전공 및 복수전공의 전필과목 포함 39학점 이상 이수. 법학전공을 제외한 인문사회계열은 36학점 이상 이수, 2. 부전공 제도는 원전공은 전필과목 포함 51학점 이상 이수, 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 부전공은 전필과목 포함 27학점 이상 이수, 3. 융합전공 제도는 원전공은 전필과목 포함 39학점 이상 이수, 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 융합전공은 전필과목 포함 39학점 이상 이수, 4. 융합부전공 제도는 원전공은 전필과목 포함 51학점 이상 이수, 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 융합부전공 제도는 전필과목 포함 27학점 이상 이수, 5. 연계전공 제도는 연계전공의 교과목 9학점 이상 이수, 6. 소단위전공과정(마이크로디그리) 제도는 과정별로 정해진 3~4과목 이수. 전공 신청 전에 이수한 교과목도 해당 전공으로 소급 인정됨. 공통으로 성적증명서 상단에 표시가 되며, 학위증에 다전공명 표시됨. 전공별 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고.</t>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 복수전공은 전필과목 포함 39학점 이상 이수, 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 복수전공 둘다 합격해야 함. 인문계열 전공 학생이 자연/공학계열 전공을 선택하면 총 졸업학점 수가 120학점에서 130학점으로 변경됨.</t>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 부전공은 전필과목 포함 27학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨.</t>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 융합전공은 전필과목 포함 39학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 융합전공 둘다 합격해야 함.</t>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 융합부전공은 전필과목 포함 27학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨.</t>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 78학점 이상 이수하여야 하고 연계전공은 전공 교과목 9학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 72학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨.</t>
-  </si>
-  <si>
-    <t>마이크로디그리의 과정별로 편성된 과목 3~4과목(8~12학점)을 이수. 원전공 전공과목과 동일한 교과목은 원전공의 이수구분으로, 타 전공의 교과목의 경우 자유선택으로 인정. 교양과목은 원전공의 이수구분을 따름. 소단위전공과정은 이수건수 제한 없음. 이수 시 별도의 이수증을 발급. 세부 과정이 궁금하면 마이크로디그리 목록 알려줘라고 질문</t>
-  </si>
-  <si>
-    <t>원전공 기준의 등록금을 납부하면 됨. 다전공을 신청해도 추가 등록금을 내지 않음. 다전공 제도 참여시 별도의 장학금 지원은 현재 없음. 등록금 고지, 환불 등에 관한 사항은 재무팀(031-670-5472)으로 연락.</t>
-  </si>
-  <si>
-    <t>증명서 발급, 전과(전공변경), 휴복학, 재입학 관련은 학사지원팀 031-670-5033 연락</t>
-  </si>
-  <si>
-    <t>성적 처리, 수강 관련은 학사지원팀 031-670-5032 연락</t>
-  </si>
-  <si>
-    <t>교직, 자유학기제 관련은 학사지원팀 031-670-5036 연락</t>
-  </si>
-  <si>
     <t>소단위전공과정(마이크로디그리)는 식품품질관리 MD, 반려동물 MD 등 37개의 과정이 있음. 과정별로 궁금하면 마이크로디그리 목록 알려줘라고 질문. 더 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 참고</t>
   </si>
   <si>
@@ -660,8 +627,61 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>타 대학 학점교류, 계절학기 등 관련은 학사지원팀 031-670-5034 연락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>타 대학 학점교류, 계절학기 등 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5034 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증명서 발급, 전과(전공변경), 휴복학, 재입학 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5037 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 기준의 등록금을 납부하면 됨. 다전공을 신청해도 추가 등록금을 내지 않음. 다전공 제도 참여시 별도의 장학금 지원은 현재 없음. 등록금 고지, 환불 등에 관한 사항은 학교 홈페이지 한경공지 https://www.hknu.ac.kr/kor/561/subview.do 참고 또는 재무팀 031-670-5472 연락.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적 처리, 수강 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5032 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교직, 자유학기제 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5036 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 복수전공 제도는 원전공 및 복수전공의 전필과목 포함 39학점 이상 이수. 법학전공을 제외한 인문사회계열은 36학점 이상 이수, 2. 부전공 제도는 원전공은 전필과목 포함 51학점 이상 이수, 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 부전공은 전필과목 포함 27학점 이상 이수, 3. 융합전공 제도는 원전공은 전필과목 포함 39학점 이상 이수, 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 융합전공은 전필과목 포함 39학점 이상 이수, 4. 융합부전공 제도는 원전공은 전필과목 포함 51학점 이상 이수, 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 융합부전공 제도는 전필과목 포함 27학점 이상 이수, 5. 연계전공 제도는 연계전공의 교과목 9학점 이상 이수, 6. 소단위전공과정(마이크로디그리) 제도는 과정별로 정해진 3~4과목 이수. 전공 신청 전에 이수한 교과목도 해당 전공으로 소급 인정됨. 공통으로 성적증명서 상단에 표시가 되며, 학위증에 다전공명 표시됨. 다전공별 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 복수전공은 전필과목 포함 39학점 이상 이수, 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 복수전공 둘다 합격해야 함. 인문계열 전공 학생이 자연/공학계열 전공을 선택하면 총 졸업학점 수가 120학점에서 130학점으로 변경됨. 복수전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 부전공은 전필과목 포함 27학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨. 부전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 융합전공은 전필과목 포함 39학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 융합전공 둘다 합격해야 함. 융합전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 융합부전공은 전필과목 포함 27학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨. 융합부전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 78학점 이상 이수하여야 하고 연계전공은 전공 교과목 9학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 72학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨. 연계전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리의 과정별로 편성된 과목 3~4과목(8~12학점)을 이수. 원전공 전공과목과 동일한 교과목은 원전공의 이수구분으로, 타 전공의 교과목의 경우 자유선택으로 인정. 교양과목은 원전공의 이수구분을 따름. 소단위전공과정은 이수건수 제한 없음. 이수 시 별도의 이수증을 발급. 세부 과정이 궁금하면 마이크로디그리 목록 알려줘라고 질문. 마이크로디그리의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F063</t>
+  </si>
+  <si>
+    <t>F064</t>
+  </si>
+  <si>
+    <t>F065</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1143,7 +1163,7 @@
         <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1163,7 +1183,7 @@
         <v>151</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1183,7 +1203,7 @@
         <v>151</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1203,7 +1223,7 @@
         <v>151</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1223,7 +1243,7 @@
         <v>151</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1243,7 +1263,7 @@
         <v>151</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1263,7 +1283,7 @@
         <v>151</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -2005,7 +2025,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2023,7 +2043,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2041,7 +2061,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2059,7 +2079,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2077,7 +2097,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2095,7 +2115,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2115,7 +2135,7 @@
         <v>152</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -2135,7 +2155,7 @@
         <v>152</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -2149,11 +2169,11 @@
         <v>91</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -2171,7 +2191,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2185,11 +2205,11 @@
         <v>91</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2203,11 +2223,11 @@
         <v>91</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2225,7 +2245,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -2239,11 +2259,11 @@
         <v>91</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -2257,15 +2277,17 @@
         <v>91</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="B64" s="2" t="s">
         <v>73</v>
       </c>
@@ -2279,11 +2301,13 @@
         <v>152</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="2"/>
+      <c r="A65" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="B65" s="2" t="s">
         <v>73</v>
       </c>
@@ -2297,11 +2321,13 @@
         <v>152</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="B66" s="2" t="s">
         <v>82</v>
       </c>
@@ -2309,11 +2335,11 @@
         <v>91</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505AA2AD-08A8-443A-9572-AEB24F64BC83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78942F19-3014-4E75-81B3-91B950EFC875}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,30 +481,6 @@
     <t>목록, 리스트</t>
   </si>
   <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월). 신청 절차: 1. 신청서 작성, 2. 다전공 지도교수 및 학부장 확인, 3. 다전공 희망 학부장 확인, 4. 다전공 희망전공 사무실에 제출. 자세한 내용:  https://www.hknu.ac.kr/kor/562/subview.do</t>
-  </si>
-  <si>
-    <t>모든 제도는 동일하게 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고.</t>
-  </si>
-  <si>
-    <t>복수전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 학교 홈페이지 학사공지 (https://www.hknu.ac.kr/kor/562/subview.do 참고.</t>
-  </si>
-  <si>
-    <t>부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고.</t>
-  </si>
-  <si>
-    <t>융합전공은 입학 후 첫 학기부터 신청 가능 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고.</t>
-  </si>
-  <si>
-    <t>융합부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 학교 홈페이지 학사공지https://www.hknu.ac.kr/kor/562/subview.do 참고.</t>
-  </si>
-  <si>
-    <t>연계전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고.</t>
-  </si>
-  <si>
-    <t>소단위전공과정(마이크로디그리)는 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고.</t>
-  </si>
-  <si>
     <t>1. 포기서 작성, 2. 다전공 학부장 확인, 3. 다전공 사무실에 제출. 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 다전공 포기는 별도의 신청 기간 없이 가능, 해당 다전공 사무실에 포기서 제출.</t>
   </si>
   <si>
@@ -571,30 +547,6 @@
     <t>현재까지의 성적확인, 이수학점 확인, 수강조회 등은 학사시스템 https://info.hknu.ac.kr 확인</t>
   </si>
   <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 복수전공 지도교수 및 학부장 확인, 3. 복수전공 희망 학부장 확인, 4. 복수전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용:  https://www.hknu.ac.kr/kor/562/subview.do</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 부전공 지도교수 및 학부장 확인, 3. 부전공 희망 학부장 확인, 4. 부전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용:  https://www.hknu.ac.kr/kor/562/subview.do</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용:  https://www.hknu.ac.kr/kor/562/subview.do</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합부전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용:  https://www.hknu.ac.kr/kor/562/subview.do</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 연계전공 희망 학부장 확인, 4. 연계전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용:  https://www.hknu.ac.kr/kor/562/subview.do</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 교육운영전공 지도교수 및 학부장 확인, 3. 교육운영전공 학부장 확인 및 사무실 제출. 신청서 양식 등 자세한 내용:  https://www.hknu.ac.kr/kor/562/subview.do</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>증명서, 증명서발급, 졸업증명서, 재학증명서, 수료증명서, 전과, 전공변경, 휴학, 복학, 재입학, 서류, 서류발급, 문서, 증명, 발급방법, 어떻게발급, 이수증명, 영문증명서, 국문증명서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -682,6 +634,62 @@
   </si>
   <si>
     <t>F065</t>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월). 신청 절차: 1. 신청서 작성, 2. 다전공 지도교수 및 학부장 확인, 3. 다전공 희망 학부장 확인, 4. 다전공 희망전공 사무실에 제출. 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 복수전공 지도교수 및 학부장 확인, 3. 복수전공 희망 학부장 확인, 4. 복수전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 부전공 지도교수 및 학부장 확인, 3. 부전공 희망 학부장 확인, 4. 부전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합부전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 연계전공 희망 학부장 확인, 4. 연계전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 교육운영전공 지도교수 및 학부장 확인, 3. 교육운영전공 학부장 확인 및 사무실 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 제도는 동일하게 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공은 입학 후 첫 학기부터 신청 가능 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정(마이크로디그리)는 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1096,7 +1104,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1143,7 +1151,7 @@
         <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1163,7 +1171,7 @@
         <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1183,7 +1191,7 @@
         <v>151</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1203,7 +1211,7 @@
         <v>151</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1223,7 +1231,7 @@
         <v>151</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1243,7 +1251,7 @@
         <v>151</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1263,7 +1271,7 @@
         <v>151</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1283,7 +1291,7 @@
         <v>151</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1301,7 +1309,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1319,7 +1327,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1337,7 +1345,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1355,7 +1363,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1373,7 +1381,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1391,7 +1399,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1411,7 +1419,7 @@
         <v>152</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1431,7 +1439,7 @@
         <v>152</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1449,7 +1457,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1467,7 +1475,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1485,7 +1493,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1503,7 +1511,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1521,7 +1529,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1539,7 +1547,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1559,7 +1567,7 @@
         <v>152</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1579,7 +1587,7 @@
         <v>152</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1597,7 +1605,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1615,7 +1623,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1633,7 +1641,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1651,7 +1659,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1669,7 +1677,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1687,7 +1695,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1707,7 +1715,7 @@
         <v>152</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -1727,7 +1735,7 @@
         <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1745,7 +1753,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1763,7 +1771,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1781,7 +1789,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1801,7 +1809,7 @@
         <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1821,7 +1829,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1839,7 +1847,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -1859,7 +1867,7 @@
         <v>152</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1879,7 +1887,7 @@
         <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1897,7 +1905,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -1915,7 +1923,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1933,7 +1941,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -1951,7 +1959,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1969,7 +1977,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -1987,7 +1995,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -2007,7 +2015,7 @@
         <v>152</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2025,7 +2033,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2043,7 +2051,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2061,7 +2069,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2079,7 +2087,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2097,7 +2105,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2115,7 +2123,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2135,7 +2143,7 @@
         <v>152</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -2155,7 +2163,7 @@
         <v>152</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -2169,11 +2177,11 @@
         <v>91</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -2191,7 +2199,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2205,11 +2213,11 @@
         <v>91</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2223,11 +2231,11 @@
         <v>91</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2245,7 +2253,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -2259,11 +2267,11 @@
         <v>91</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -2277,16 +2285,16 @@
         <v>91</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>73</v>
@@ -2301,12 +2309,12 @@
         <v>152</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>73</v>
@@ -2321,12 +2329,12 @@
         <v>152</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>82</v>
@@ -2335,11 +2343,11 @@
         <v>91</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78942F19-3014-4E75-81B3-91B950EFC875}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B4CB6-59D9-4318-8C5C-A1D15FBBB1E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,59 +636,59 @@
     <t>F065</t>
   </si>
   <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월). 신청 절차: 1. 신청서 작성, 2. 다전공 지도교수 및 학부장 확인, 3. 다전공 희망 학부장 확인, 4. 다전공 희망전공 사무실에 제출. 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 복수전공 지도교수 및 학부장 확인, 3. 복수전공 희망 학부장 확인, 4. 복수전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 부전공 지도교수 및 학부장 확인, 3. 부전공 희망 학부장 확인, 4. 부전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합부전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 연계전공 희망 학부장 확인, 4. 연계전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 교육운영전공 지도교수 및 학부장 확인, 3. 교육운영전공 학부장 확인 및 사무실 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 제도는 동일하게 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>복수전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합전공은 입학 후 첫 학기부터 신청 가능 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연계전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소단위전공과정(마이크로디그리)는 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조  https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월). 신청 절차: 1. 신청서 작성, 2. 다전공 지도교수 및 학부장 확인, 3. 다전공 희망 학부장 확인, 4. 다전공 희망전공 사무실에 제출. 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 복수전공 지도교수 및 학부장 확인, 3. 복수전공 희망 학부장 확인, 4. 복수전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 부전공 지도교수 및 학부장 확인, 3. 부전공 희망 학부장 확인, 4. 부전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합부전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 연계전공 희망 학부장 확인, 4. 연계전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 교육운영전공 지도교수 및 학부장 확인, 3. 교육운영전공 학부장 확인 및 사무실 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 제도는 동일하게 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공은 입학 후 첫 학기부터 신청 가능 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정(마이크로디그리)는 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -755,13 +755,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,7 +1107,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1127,7 +1130,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B4CB6-59D9-4318-8C5C-A1D15FBBB1E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01869951-B4EC-4BBF-9C1E-9654CCF3A93D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,10 +664,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모든 제도는 동일하게 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>복수전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -689,6 +685,10 @@
   </si>
   <si>
     <t>소단위전공과정(마이크로디그리)는 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한경국립대학교 재학생이면 누구나 신청 가능. 모든 제도는 동일하게 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1422,7 +1422,7 @@
         <v>152</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1442,7 +1442,7 @@
         <v>152</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01869951-B4EC-4BBF-9C1E-9654CCF3A93D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB53E0-B9EB-4F65-94C8-28EA156C0FEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,214 +481,223 @@
     <t>목록, 리스트</t>
   </si>
   <si>
-    <t>1. 포기서 작성, 2. 다전공 학부장 확인, 3. 다전공 사무실에 제출. 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 다전공 포기는 별도의 신청 기간 없이 가능, 해당 다전공 사무실에 포기서 제출.</t>
-  </si>
-  <si>
-    <t>1. 포기서 작성, 2. 복수전공 학부장 확인, 3. 복수전공 사무실에 제출. 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 가능하며, 해당 복수전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 확인 가능.</t>
-  </si>
-  <si>
-    <t>1. 포기서 작성, 2. 부전공 학부장 확인, 3. 부전공 사무실에 제출, 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 해당 부전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 확인 가능.</t>
-  </si>
-  <si>
-    <t>1. 포기서 작성, 2. 융합전공 학부장 확인, 3. 융합전공 사무실에 제출, 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 가능하며, 융합전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 확인 가능.</t>
-  </si>
-  <si>
-    <t>1. 포기서 작성, 2. 융합부전공 학부장 확인, 3. 융합부전공 사무실에 제출, 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 가능하며, 융합부전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 확인 가능.</t>
-  </si>
-  <si>
-    <t>1. 포기서 작성, 2. 연계전공 학부장 확인, 3. 연계전공 사무실에 제출, 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 가능하며, 해당 연계전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 확인 가능.</t>
-  </si>
-  <si>
-    <t>1. 포기서 작성, 2. 소단위전공과정 교육운영전공 학부장 확인, 3. 교육운영전공 사무실에 제출, 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 가능하며, 해당 교육운영전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 확인 가능.</t>
-  </si>
-  <si>
-    <t>다전공의 전공을 변경하려면 1. 기존의 다전공의 포기서 제출(해당 전공 사무실), 2. 새로하려는 다전공의 신청서 제출(해당 전공 사무실). 다전공 신청 기간에 포기와 신청을 동시에 할 수 있음.</t>
+    <t>복수전공은 2개 전공을 모두 전공자로 인정되어 학위를 각각 받지만, 부전공은 복수전공에 비해 난이도와 학점 부담이 적어 상대적으로 이수하기가 쉬움.</t>
+  </si>
+  <si>
+    <t>2개 이상의 전공이 융합하여 새로운 전공을 만든 것으로 학생들에게 보다 더 나은 교육의 질을 제공하기 위해 만들어진 전공으로 융합전공은 2개 전공을 모두 전공자로 인정되어 학위를 각각 받지만, 융합부전공은 융합전공에 비해 난이도와 학점 부담이 적어 상대적으로 이수하기가 쉬움.</t>
+  </si>
+  <si>
+    <t>원전공 이외에 다른 전공에서 정한 교과목을 이수하는 제도로 전공 교과목 9학점 이상만 이수하면 되어 도전해 보기 좋은 제도.</t>
+  </si>
+  <si>
+    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 본인 전공과목과 중복 인정이 가능하며, 3개 교과목 이상 이수 시 연계전공 신청도 가능. 다른 다전공도 중복으로 신청 가능. 복수전공,부전공,융합전공,융합부전공, 연계전공 중 1개만 참여 가능, 마이크로디그리는 제한 없음</t>
+  </si>
+  <si>
+    <t>주전공 외에 복수, 융합전공 등 다양한 학위를 취득하여 융합형 인재로 성장할 수 있도록 지원하는 유연학사제도. 다전공에는 복수전공, 부전공, 융합전공, 융합부전공, 연계전공, 소단위전공과정(마이크로디그리)가 있음.</t>
+  </si>
+  <si>
+    <t>원전공 이외에 다른 전공의 전공과정을 이수하여 2개의 학위를 인정받는 제도. 원 전공 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상), 복수전공 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상).</t>
+  </si>
+  <si>
+    <t>원전공 이외에 다른 전공의 전공과정을 이수하는 제도. 원 전공 전필과목 포함 51학점 이상(법학전공을 제외한 인문사회계열은 48학점 이상), 부전공 전필과목 포함 27학점 이상.</t>
+  </si>
+  <si>
+    <t>2개 이상의 전공이 융합하여 새로운 전공을 만든 것으로 학생들에게 보다 더 나은 교육의 질을 제공하기 위해 만들어진 전공. 2개의 학위 인정. 스마트헬스케어융합전공, AI스마트팜융합전공, AI빅데이터융합전공, 공공헬스케어IT융합전공, 반도체융합전공, 스마트애그리푸드시스템전공, 탄소중립바이오시스템융합전공이 있음. 원 전공 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상), 융합전공 전필과목 포함 39학점 이상.</t>
+  </si>
+  <si>
+    <t>2개 이상의 전공이 융합하여 새로운 전공을 만든 것으로 학생들에게 보다 더 나은 교육의 질을 제공하기 위해 만들어진 전공. 스마트헬스케어융합전공, AI스마트팜융합전공, AI빅데이터융합전공, 공공헬스케어IT융합전공, 반도체융합전공, 스마트애그리푸드시스템전공, 탄소중립바이오시스템융합전공이 있음. 원 전공 전필과목 포함 51학점 이상(법학전공을 제외한 인문사회계열은 48학점 이상), 융합부전공 전필과목 포함 27학점 이상.</t>
+  </si>
+  <si>
+    <t>원전공 이외에 다른 전공에서 정한 교과목을 이수하는 제도. 대학생들에게 다양한 전공 선택 기회를 제공하는 새로운 전공 이수방법. 원 전공 전필과목 포함 78학점 이상(법학전공을 제외한 인문사회계열은 72학점 이상), 연계전공 전공 교과목 9학점 이상.</t>
+  </si>
+  <si>
+    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 소단위전공과정은 마이크로디그리와 동일한 제도임. 본인 전공과목과 중복 인정이 가능해 효율적으로 이수할 수 있으며, 3개 교과목 이상 이수 시 연계전공 신청도 가능. 원전공 졸업요구학점, 소단위전공과정별 8~12학점. 소단위전공과정은 이수건수 제한이 없음. 이수 시 별도의 이수증 발급. 어떤 전공이 있는지 궁금하시다면? 마이크로디그리 전공 목록 질문</t>
+  </si>
+  <si>
+    <t>소단위전공과정(마이크로디그리)는 식품품질관리 MD, 반려동물 MD 등 37개의 과정이 있음. 과정별로 궁금하면 마이크로디그리 목록 알려줘라고 질문. 더 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 참고</t>
+  </si>
+  <si>
+    <t>현재까지의 성적확인, 이수학점 확인, 수강조회 등은 학사시스템 https://info.hknu.ac.kr 확인</t>
+  </si>
+  <si>
+    <t>증명서, 증명서발급, 졸업증명서, 재학증명서, 수료증명서, 전과, 전공변경, 휴학, 복학, 재입학, 서류, 서류발급, 문서, 증명, 발급방법, 어떻게발급, 이수증명, 영문증명서, 국문증명서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교직, 교직이수, 교원자격, 교원자격증, 교직과정, 자유학기, 자유학기제, 교사자격증, 교직이수방법, 교직신청, 교직과정신청, 자유학기제교직, 교직학점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업유예, 졸업유예시기, 졸업유예언제, 조기졸업, 조기졸업시기, 조기졸업언제, 유예, 유예시기, 유예언제, 졸업늦추, 졸업미루, 졸업연기, 조기, 빨리졸업, 일찍졸업, 유예신청, 유예방법, 유예기간, 조기졸업조건, 조기졸업방법, 언제까지유예</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 학년도 전기 졸업식은 2월 중순, 후기 졸업식은 8월 중순에 진행. 정확한 일정은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5036 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업 유예와 조기 졸업은 2월 졸업은 1월에 접수, 8월 졸업은 7월에 접수. 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5035 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적확인, 성적확인하려, 성적확인하고싶, 성적확인하고, 성적확인하려, 이수학점확인, 내성적확인, 내성적확인하고싶, 수강신청확인, 수강신청확인하고싶, 수강신청내역확인하려, 수강신청내역, 내수강신청확인, 성적조회, 성적조회하려, 성적보기, 성적어떻게봐, 성적어디서봐, 성적어디서확인, 내성적조회, 내성적보기, 학점확인, 학점조회, 내학점확인, 내학점조회, 이수학점조회, 총이수학점확인, 총이수학점조회, 취득학점확인, 취득학점조회, 들은학점확인, 이수한학점확인, 내이수학점확인, 내이수학점조회, 수강내역확인, 수강내역조회, 수강과목확인, 수강과목조회, 들은과목확인, 수강확인, 수강조회, 내수강내역확인, 내수강과목확인, 수강신청내역조회, 어떤과목들었, 무슨과목들었는지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록금, 수강료, 추가 등록금, 학비, 납부, 추가등록금, 감면, 면제, 장학금, 환불, 고지, 등록금고지, 고지서, 학비얼마, 비용얼마, 추가비용, 추가학비, 더내야하나, 등록금추가, 등록금더, 등록금별도, 돈얼마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점교류, 학점인정, 이수구분, 계절학기, 타대학, 타교, 다른학교, 학점인정방법, 학점인정되나, 인정받나, 교환학생, 교류학점, 타교학점, 계절학기신청, 계절학기는, 여름학기, 겨울학기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 대학 학점교류, 계절학기 등 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5034 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증명서 발급, 전과(전공변경), 휴복학, 재입학 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5037 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 기준의 등록금을 납부하면 됨. 다전공을 신청해도 추가 등록금을 내지 않음. 다전공 제도 참여시 별도의 장학금 지원은 현재 없음. 등록금 고지, 환불 등에 관한 사항은 학교 홈페이지 한경공지 https://www.hknu.ac.kr/kor/561/subview.do 참고 또는 재무팀 031-670-5472 연락.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적 처리, 수강 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5032 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교직, 자유학기제 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5036 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 복수전공 제도는 원전공 및 복수전공의 전필과목 포함 39학점 이상 이수. 법학전공을 제외한 인문사회계열은 36학점 이상 이수, 2. 부전공 제도는 원전공은 전필과목 포함 51학점 이상 이수, 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 부전공은 전필과목 포함 27학점 이상 이수, 3. 융합전공 제도는 원전공은 전필과목 포함 39학점 이상 이수, 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 융합전공은 전필과목 포함 39학점 이상 이수, 4. 융합부전공 제도는 원전공은 전필과목 포함 51학점 이상 이수, 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 융합부전공 제도는 전필과목 포함 27학점 이상 이수, 5. 연계전공 제도는 연계전공의 교과목 9학점 이상 이수, 6. 소단위전공과정(마이크로디그리) 제도는 과정별로 정해진 3~4과목 이수. 전공 신청 전에 이수한 교과목도 해당 전공으로 소급 인정됨. 공통으로 성적증명서 상단에 표시가 되며, 학위증에 다전공명 표시됨. 다전공별 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 복수전공은 전필과목 포함 39학점 이상 이수, 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 복수전공 둘다 합격해야 함. 인문계열 전공 학생이 자연/공학계열 전공을 선택하면 총 졸업학점 수가 120학점에서 130학점으로 변경됨. 복수전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 부전공은 전필과목 포함 27학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨. 부전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 융합전공은 전필과목 포함 39학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 융합전공 둘다 합격해야 함. 융합전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 융합부전공은 전필과목 포함 27학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨. 융합부전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 78학점 이상 이수하여야 하고 연계전공은 전공 교과목 9학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 72학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨. 연계전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리의 과정별로 편성된 과목 3~4과목(8~12학점)을 이수. 원전공 전공과목과 동일한 교과목은 원전공의 이수구분으로, 타 전공의 교과목의 경우 자유선택으로 인정. 교양과목은 원전공의 이수구분을 따름. 소단위전공과정은 이수건수 제한 없음. 이수 시 별도의 이수증을 발급. 세부 과정이 궁금하면 마이크로디그리 목록 알려줘라고 질문. 마이크로디그리의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F063</t>
+  </si>
+  <si>
+    <t>F064</t>
+  </si>
+  <si>
+    <t>F065</t>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월). 신청 절차: 1. 신청서 작성, 2. 다전공 지도교수 및 학부장 확인, 3. 다전공 희망 학부장 확인, 4. 다전공 희망전공 사무실에 제출. 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 복수전공 지도교수 및 학부장 확인, 3. 복수전공 희망 학부장 확인, 4. 복수전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 부전공 지도교수 및 학부장 확인, 3. 부전공 희망 학부장 확인, 4. 부전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합부전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 연계전공 희망 학부장 확인, 4. 연계전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 교육운영전공 지도교수 및 학부장 확인, 3. 교육운영전공 학부장 확인 및 사무실 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공은 입학 후 첫 학기부터 신청 가능 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정(마이크로디그리)는 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한경국립대학교 재학생이면 누구나 신청 가능. 모든 제도는 동일하게 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 다전공 학부장 확인, 3. 다전공 사무실에 제출. 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 다전공 포기는 별도의 신청 기간 없이 가능, 해당 다전공 사무실에 포기서 제출. 포기서 양식은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 복수전공 학부장 확인, 3. 복수전공 사무실에 제출. 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 가능하며, 해당 복수전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 부전공 학부장 확인, 3. 부전공 사무실에 제출, 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 해당 부전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 융합전공 학부장 확인, 3. 융합전공 사무실에 제출, 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 가능하며, 융합전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 융합부전공 학부장 확인, 3. 융합부전공 사무실에 제출, 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 가능하며, 융합부전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 연계전공 학부장 확인, 3. 연계전공 사무실에 제출, 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 가능하며, 해당 연계전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 소단위전공과정 교육운영전공 학부장 확인, 3. 교육운영전공 사무실에 제출, 이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경. 포기는 별도의 신청 기간 없이 가능하며, 해당 교육운영전공 사무실에 포기서 제출. 포기서 양식은 학교 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공의 전공을 변경하려면 1. 기존의 다전공의 포기서 제출(해당 전공 사무실), 2. 새로하려는 다전공의 신청서 제출(해당 전공 사무실). 다전공 신청 기간에 포기와 신청을 동시에 할 수 있음. 포기서 양식 등은 학교 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다전공에는 복수전공, 부전공, 융합전공, 융합부전공, 연계전공, 소단위전공과정(마이크로디그리)가 있음. 복수전공, 융합전공처럼 학점 부담이 큰 제도는3~4학년에 시작할 경우 졸업이 늦을 수 있음. 반면 1~2학년 때부터 미리 준비하면 큰 문제 없음. 학점 부담이 적은 연계전공, 소단위전공과정은 3~4학년 때 시작해도 무리가 없으며, 이미 관련 전공 과목을 이수했다면 소급 인정이 가능해 부담이 휠씬 적음. 복수전공, 부전공, 융합전공, 융합부전공, 연계전공은 1개만 이수할 수 있으며. 소단위전공과정(마이크로디그리)은 이수건수 제한 없음.</t>
-  </si>
-  <si>
-    <t>복수전공은 2개 전공을 모두 전공자로 인정되어 학위를 각각 받지만, 부전공은 복수전공에 비해 난이도와 학점 부담이 적어 상대적으로 이수하기가 쉬움.</t>
-  </si>
-  <si>
-    <t>2개 이상의 전공이 융합하여 새로운 전공을 만든 것으로 학생들에게 보다 더 나은 교육의 질을 제공하기 위해 만들어진 전공으로 융합전공은 2개 전공을 모두 전공자로 인정되어 학위를 각각 받지만, 융합부전공은 융합전공에 비해 난이도와 학점 부담이 적어 상대적으로 이수하기가 쉬움.</t>
-  </si>
-  <si>
-    <t>원전공 이외에 다른 전공에서 정한 교과목을 이수하는 제도로 전공 교과목 9학점 이상만 이수하면 되어 도전해 보기 좋은 제도.</t>
-  </si>
-  <si>
-    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 본인 전공과목과 중복 인정이 가능하며, 3개 교과목 이상 이수 시 연계전공 신청도 가능. 다른 다전공도 중복으로 신청 가능. 복수전공,부전공,융합전공,융합부전공, 연계전공 중 1개만 참여 가능, 마이크로디그리는 제한 없음</t>
-  </si>
-  <si>
-    <t>주전공 외에 복수, 융합전공 등 다양한 학위를 취득하여 융합형 인재로 성장할 수 있도록 지원하는 유연학사제도. 다전공에는 복수전공, 부전공, 융합전공, 융합부전공, 연계전공, 소단위전공과정(마이크로디그리)가 있음.</t>
-  </si>
-  <si>
-    <t>원전공 이외에 다른 전공의 전공과정을 이수하여 2개의 학위를 인정받는 제도. 원 전공 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상), 복수전공 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상).</t>
-  </si>
-  <si>
-    <t>원전공 이외에 다른 전공의 전공과정을 이수하는 제도. 원 전공 전필과목 포함 51학점 이상(법학전공을 제외한 인문사회계열은 48학점 이상), 부전공 전필과목 포함 27학점 이상.</t>
-  </si>
-  <si>
-    <t>2개 이상의 전공이 융합하여 새로운 전공을 만든 것으로 학생들에게 보다 더 나은 교육의 질을 제공하기 위해 만들어진 전공. 2개의 학위 인정. 스마트헬스케어융합전공, AI스마트팜융합전공, AI빅데이터융합전공, 공공헬스케어IT융합전공, 반도체융합전공, 스마트애그리푸드시스템전공, 탄소중립바이오시스템융합전공이 있음. 원 전공 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상), 융합전공 전필과목 포함 39학점 이상.</t>
-  </si>
-  <si>
-    <t>2개 이상의 전공이 융합하여 새로운 전공을 만든 것으로 학생들에게 보다 더 나은 교육의 질을 제공하기 위해 만들어진 전공. 스마트헬스케어융합전공, AI스마트팜융합전공, AI빅데이터융합전공, 공공헬스케어IT융합전공, 반도체융합전공, 스마트애그리푸드시스템전공, 탄소중립바이오시스템융합전공이 있음. 원 전공 전필과목 포함 51학점 이상(법학전공을 제외한 인문사회계열은 48학점 이상), 융합부전공 전필과목 포함 27학점 이상.</t>
-  </si>
-  <si>
-    <t>원전공 이외에 다른 전공에서 정한 교과목을 이수하는 제도. 대학생들에게 다양한 전공 선택 기회를 제공하는 새로운 전공 이수방법. 원 전공 전필과목 포함 78학점 이상(법학전공을 제외한 인문사회계열은 72학점 이상), 연계전공 전공 교과목 9학점 이상.</t>
-  </si>
-  <si>
-    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 소단위전공과정은 마이크로디그리와 동일한 제도임. 본인 전공과목과 중복 인정이 가능해 효율적으로 이수할 수 있으며, 3개 교과목 이상 이수 시 연계전공 신청도 가능. 원전공 졸업요구학점, 소단위전공과정별 8~12학점. 소단위전공과정은 이수건수 제한이 없음. 이수 시 별도의 이수증 발급. 어떤 전공이 있는지 궁금하시다면? 마이크로디그리 전공 목록 질문</t>
-  </si>
-  <si>
-    <t>소단위전공과정(마이크로디그리)는 식품품질관리 MD, 반려동물 MD 등 37개의 과정이 있음. 과정별로 궁금하면 마이크로디그리 목록 알려줘라고 질문. 더 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 참고</t>
-  </si>
-  <si>
-    <t>현재까지의 성적확인, 이수학점 확인, 수강조회 등은 학사시스템 https://info.hknu.ac.kr 확인</t>
-  </si>
-  <si>
-    <t>증명서, 증명서발급, 졸업증명서, 재학증명서, 수료증명서, 전과, 전공변경, 휴학, 복학, 재입학, 서류, 서류발급, 문서, 증명, 발급방법, 어떻게발급, 이수증명, 영문증명서, 국문증명서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교직, 교직이수, 교원자격, 교원자격증, 교직과정, 자유학기, 자유학기제, 교사자격증, 교직이수방법, 교직신청, 교직과정신청, 자유학기제교직, 교직학점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업유예, 졸업유예시기, 졸업유예언제, 조기졸업, 조기졸업시기, 조기졸업언제, 유예, 유예시기, 유예언제, 졸업늦추, 졸업미루, 졸업연기, 조기, 빨리졸업, 일찍졸업, 유예신청, 유예방법, 유예기간, 조기졸업조건, 조기졸업방법, 언제까지유예</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 학년도 전기 졸업식은 2월 중순, 후기 졸업식은 8월 중순에 진행. 정확한 일정은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5036 연락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업 유예와 조기 졸업은 2월 졸업은 1월에 접수, 8월 졸업은 7월에 접수. 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5035 연락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성적확인, 성적확인하려, 성적확인하고싶, 성적확인하고, 성적확인하려, 이수학점확인, 내성적확인, 내성적확인하고싶, 수강신청확인, 수강신청확인하고싶, 수강신청내역확인하려, 수강신청내역, 내수강신청확인, 성적조회, 성적조회하려, 성적보기, 성적어떻게봐, 성적어디서봐, 성적어디서확인, 내성적조회, 내성적보기, 학점확인, 학점조회, 내학점확인, 내학점조회, 이수학점조회, 총이수학점확인, 총이수학점조회, 취득학점확인, 취득학점조회, 들은학점확인, 이수한학점확인, 내이수학점확인, 내이수학점조회, 수강내역확인, 수강내역조회, 수강과목확인, 수강과목조회, 들은과목확인, 수강확인, 수강조회, 내수강내역확인, 내수강과목확인, 수강신청내역조회, 어떤과목들었, 무슨과목들었는지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록금, 수강료, 추가 등록금, 학비, 납부, 추가등록금, 감면, 면제, 장학금, 환불, 고지, 등록금고지, 고지서, 학비얼마, 비용얼마, 추가비용, 추가학비, 더내야하나, 등록금추가, 등록금더, 등록금별도, 돈얼마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학점교류, 학점인정, 이수구분, 계절학기, 타대학, 타교, 다른학교, 학점인정방법, 학점인정되나, 인정받나, 교환학생, 교류학점, 타교학점, 계절학기신청, 계절학기는, 여름학기, 겨울학기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타 대학 학점교류, 계절학기 등 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5034 연락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>증명서 발급, 전과(전공변경), 휴복학, 재입학 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5037 연락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원전공 기준의 등록금을 납부하면 됨. 다전공을 신청해도 추가 등록금을 내지 않음. 다전공 제도 참여시 별도의 장학금 지원은 현재 없음. 등록금 고지, 환불 등에 관한 사항은 학교 홈페이지 한경공지 https://www.hknu.ac.kr/kor/561/subview.do 참고 또는 재무팀 031-670-5472 연락.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성적 처리, 수강 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5032 연락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교직, 자유학기제 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5036 연락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 복수전공 제도는 원전공 및 복수전공의 전필과목 포함 39학점 이상 이수. 법학전공을 제외한 인문사회계열은 36학점 이상 이수, 2. 부전공 제도는 원전공은 전필과목 포함 51학점 이상 이수, 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 부전공은 전필과목 포함 27학점 이상 이수, 3. 융합전공 제도는 원전공은 전필과목 포함 39학점 이상 이수, 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 융합전공은 전필과목 포함 39학점 이상 이수, 4. 융합부전공 제도는 원전공은 전필과목 포함 51학점 이상 이수, 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 융합부전공 제도는 전필과목 포함 27학점 이상 이수, 5. 연계전공 제도는 연계전공의 교과목 9학점 이상 이수, 6. 소단위전공과정(마이크로디그리) 제도는 과정별로 정해진 3~4과목 이수. 전공 신청 전에 이수한 교과목도 해당 전공으로 소급 인정됨. 공통으로 성적증명서 상단에 표시가 되며, 학위증에 다전공명 표시됨. 다전공별 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 복수전공은 전필과목 포함 39학점 이상 이수, 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 복수전공 둘다 합격해야 함. 인문계열 전공 학생이 자연/공학계열 전공을 선택하면 총 졸업학점 수가 120학점에서 130학점으로 변경됨. 복수전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 부전공은 전필과목 포함 27학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨. 부전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 융합전공은 전필과목 포함 39학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 36학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 융합전공 둘다 합격해야 함. 융합전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 융합부전공은 전필과목 포함 27학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨. 융합부전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원전공은 전필과목 포함 78학점 이상 이수하여야 하고 연계전공은 전공 교과목 9학점 이상 이수, 원전공은 법학전공을 제외한 인문사회계열은 72학점 이상 이수. 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됨. 연계전공의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고, 왼쪽 메뉴의 다전공 비교 분석도 참고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로디그리의 과정별로 편성된 과목 3~4과목(8~12학점)을 이수. 원전공 전공과목과 동일한 교과목은 원전공의 이수구분으로, 타 전공의 교과목의 경우 자유선택으로 인정. 교양과목은 원전공의 이수구분을 따름. 소단위전공과정은 이수건수 제한 없음. 이수 시 별도의 이수증을 발급. 세부 과정이 궁금하면 마이크로디그리 목록 알려줘라고 질문. 마이크로디그리의 세부사항은 왼쪽 메뉴의 다전공 제도 안내 참고.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F063</t>
-  </si>
-  <si>
-    <t>F064</t>
-  </si>
-  <si>
-    <t>F065</t>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월). 신청 절차: 1. 신청서 작성, 2. 다전공 지도교수 및 학부장 확인, 3. 다전공 희망 학부장 확인, 4. 다전공 희망전공 사무실에 제출. 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 복수전공 지도교수 및 학부장 확인, 3. 복수전공 희망 학부장 확인, 4. 복수전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 부전공 지도교수 및 학부장 확인, 3. 부전공 희망 학부장 확인, 4. 부전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합부전공 학부장 확인 및 제출(제1공학관 222호). 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 연계전공 희망 학부장 확인, 4. 연계전공 희망전공 사무실에 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집. 신청 절차: 1. 신청서 작성, 2. 교육운영전공 지도교수 및 학부장 확인, 3. 교육운영전공 학부장 확인 및 사무실 제출. 신청서 양식 등 자세한 내용은 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>복수전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합전공은 입학 후 첫 학기부터 신청 가능 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합부전공은 입학 후 첫 학기부터 신청 가능. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연계전공은 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소단위전공과정(마이크로디그리)는 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한경국립대학교 재학생이면 누구나 신청 가능. 모든 제도는 동일하게 입학 후 첫 학기부터 신청 가능. 보다 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 또는 대학 홈페이지 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1106,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1154,7 +1163,7 @@
         <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1174,7 +1183,7 @@
         <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1194,7 +1203,7 @@
         <v>151</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1214,7 +1223,7 @@
         <v>151</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1234,7 +1243,7 @@
         <v>151</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1254,7 +1263,7 @@
         <v>151</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1274,7 +1283,7 @@
         <v>151</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1294,7 +1303,7 @@
         <v>151</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1312,7 +1321,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1330,7 +1339,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1348,7 +1357,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1366,7 +1375,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1384,7 +1393,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1402,7 +1411,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1422,7 +1431,7 @@
         <v>152</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1442,7 +1451,7 @@
         <v>152</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1460,7 +1469,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1478,7 +1487,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1496,7 +1505,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1514,7 +1523,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1532,7 +1541,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1550,7 +1559,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1570,7 +1579,7 @@
         <v>152</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1590,7 +1599,7 @@
         <v>152</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1608,7 +1617,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1626,7 +1635,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1644,7 +1653,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1662,7 +1671,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1680,7 +1689,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1698,7 +1707,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1718,7 +1727,7 @@
         <v>152</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -1738,7 +1747,7 @@
         <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1756,7 +1765,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1774,7 +1783,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1792,7 +1801,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1812,7 +1821,7 @@
         <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1832,7 +1841,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1850,7 +1859,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -1870,7 +1879,7 @@
         <v>152</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1890,7 +1899,7 @@
         <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1908,7 +1917,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -1926,7 +1935,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1944,7 +1953,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -1962,7 +1971,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -1980,7 +1989,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -1998,7 +2007,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -2018,7 +2027,7 @@
         <v>152</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2036,7 +2045,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2054,7 +2063,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2072,7 +2081,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2090,7 +2099,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2108,7 +2117,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2126,7 +2135,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2146,7 +2155,7 @@
         <v>152</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -2166,7 +2175,7 @@
         <v>152</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -2180,11 +2189,11 @@
         <v>91</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -2202,7 +2211,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2216,11 +2225,11 @@
         <v>91</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2234,11 +2243,11 @@
         <v>91</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2256,7 +2265,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -2270,11 +2279,11 @@
         <v>91</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -2288,16 +2297,16 @@
         <v>91</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>73</v>
@@ -2312,12 +2321,12 @@
         <v>152</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>73</v>
@@ -2332,12 +2341,12 @@
         <v>152</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>82</v>
@@ -2346,11 +2355,11 @@
         <v>91</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB53E0-B9EB-4F65-94C8-28EA156C0FEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50F9E7-F72B-4EB5-9A73-8624356B69BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="213">
   <si>
     <t>faq_id</t>
   </si>
@@ -532,14 +532,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>매 학년도 전기 졸업식은 2월 중순, 후기 졸업식은 8월 중순에 진행. 정확한 일정은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5036 연락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업 유예와 조기 졸업은 2월 졸업은 1월에 접수, 8월 졸업은 7월에 접수. 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5035 연락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>성적확인, 성적확인하려, 성적확인하고싶, 성적확인하고, 성적확인하려, 이수학점확인, 내성적확인, 내성적확인하고싶, 수강신청확인, 수강신청확인하고싶, 수강신청내역확인하려, 수강신청내역, 내수강신청확인, 성적조회, 성적조회하려, 성적보기, 성적어떻게봐, 성적어디서봐, 성적어디서확인, 내성적조회, 내성적보기, 학점확인, 학점조회, 내학점확인, 내학점조회, 이수학점조회, 총이수학점확인, 총이수학점조회, 취득학점확인, 취득학점조회, 들은학점확인, 이수한학점확인, 내이수학점확인, 내이수학점조회, 수강내역확인, 수강내역조회, 수강과목확인, 수강과목조회, 들은과목확인, 수강확인, 수강조회, 내수강내역확인, 내수강과목확인, 수강신청내역조회, 어떤과목들었, 무슨과목들었는지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -560,10 +552,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>원전공 기준의 등록금을 납부하면 됨. 다전공을 신청해도 추가 등록금을 내지 않음. 다전공 제도 참여시 별도의 장학금 지원은 현재 없음. 등록금 고지, 환불 등에 관한 사항은 학교 홈페이지 한경공지 https://www.hknu.ac.kr/kor/561/subview.do 참고 또는 재무팀 031-670-5472 연락.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>성적 처리, 수강 관련은 학교 홈페이지 학사공지 https://www.hknu.ac.kr/kor/562/subview.do 참고 또는 학사지원팀 031-670-5032 연락</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -698,6 +686,22 @@
   </si>
   <si>
     <t>다전공에는 복수전공, 부전공, 융합전공, 융합부전공, 연계전공, 소단위전공과정(마이크로디그리)가 있음. 복수전공, 융합전공처럼 학점 부담이 큰 제도는3~4학년에 시작할 경우 졸업이 늦을 수 있음. 반면 1~2학년 때부터 미리 준비하면 큰 문제 없음. 학점 부담이 적은 연계전공, 소단위전공과정은 3~4학년 때 시작해도 무리가 없으며, 이미 관련 전공 과목을 이수했다면 소급 인정이 가능해 부담이 휠씬 적음. 복수전공, 부전공, 융합전공, 융합부전공, 연계전공은 1개만 이수할 수 있으며. 소단위전공과정(마이크로디그리)은 이수건수 제한 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 기준의 등록금을 납부하면 됨. 다전공을 신청해도 추가 등록금을 내지 않음. 다전공 제도 참여시 별도의 장학금 지원은 현재 없음. 등록금 고지, 환불 등에 관한 사항은 학교 홈페이지 한경공지 참조. https://www.hknu.ac.kr/bbs/kor/69/87311/artclView.do?layout=unknown 또는 재무팀 031-670-5472 연락.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 학년도 전기 졸업식은 2월 중순, 후기 졸업식은 8월 중순에 진행. 정확한 일정은 학교 홈페이지 학사공지 참조. https://www.hknu.ac.kr/bbs/kor/70/87507/artclView.do?layout=unknown 또는 학사지원팀 031-670-5036 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업 유예와 조기 졸업은 2월 졸업은 1월에 접수, 8월 졸업은 7월에 접수. 졸업유예는 https://www.hknu.ac.kr/bbs/kor/70/91130/artclView.do?layout=unknown 참고, 조기졸업은 https://www.hknu.ac.kr/bbs/kor/70/91129/artclView.do?layout=unknown 참고. 또는 학사지원팀 031-670-5035 연락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정(마이크로디그리)는 식품품질관리 MD, 반려동물 MD 등 37개의 과정이 있음. 과정별로 궁금하면 마이크로디그리 목록 알려줘라고 질문. 더 자세한 사항은 왼쪽 메뉴의 다전공 제도 안내 참고. 대학 홈페이지 학사공지 참고. https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1115,18 +1119,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="39.5" customWidth="1"/>
-    <col min="6" max="6" width="41.08203125" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1163,10 +1165,10 @@
         <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1183,10 +1185,10 @@
         <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1203,10 +1205,10 @@
         <v>151</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1223,10 +1225,10 @@
         <v>151</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1243,10 +1245,10 @@
         <v>151</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1263,10 +1265,10 @@
         <v>151</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1283,10 +1285,10 @@
         <v>151</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1303,10 +1305,10 @@
         <v>151</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1321,10 +1323,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1339,10 +1341,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1357,10 +1359,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1375,10 +1377,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1393,10 +1395,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1411,10 +1413,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1431,10 +1433,10 @@
         <v>152</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1451,10 +1453,10 @@
         <v>152</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1469,10 +1471,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1487,10 +1489,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1505,10 +1507,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1523,10 +1525,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1541,10 +1543,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1559,10 +1561,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1579,10 +1581,10 @@
         <v>152</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1599,10 +1601,10 @@
         <v>152</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1617,10 +1619,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1635,10 +1637,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1653,10 +1655,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1671,10 +1673,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1689,10 +1691,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1707,10 +1709,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1727,10 +1729,10 @@
         <v>152</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1747,10 +1749,10 @@
         <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1765,10 +1767,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1786,7 +1788,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1804,7 +1806,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1824,7 +1826,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1862,7 +1864,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1882,7 +1884,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1902,7 +1904,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1956,7 +1958,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -2010,7 +2012,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2045,10 +2047,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -2063,10 +2065,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -2081,10 +2083,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
@@ -2099,10 +2101,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -2117,10 +2119,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -2135,10 +2137,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -2155,10 +2157,10 @@
         <v>152</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -2175,10 +2177,10 @@
         <v>152</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2189,14 +2191,14 @@
         <v>91</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -2211,10 +2213,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
@@ -2229,10 +2231,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -2243,14 +2245,14 @@
         <v>91</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2265,10 +2267,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -2283,10 +2285,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -2301,12 +2303,12 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>73</v>
@@ -2324,9 +2326,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>73</v>
@@ -2341,12 +2343,12 @@
         <v>152</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>82</v>
@@ -2355,7 +2357,7 @@
         <v>91</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D035A-F95E-42B3-B078-F71B536866A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD154B-B472-4470-B9D5-2DF86D665C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="230">
   <si>
     <t>faq_id</t>
   </si>
@@ -5045,6 +5045,50 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 자세한 사항은 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 신청 기간: 매 학기 초(4월, 10월)와 학기 말(6월, 12월), 학기별 2회 모집.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 신청서 양식 및 정확한 일정은 학사공지 확인: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5497,7 +5541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5557,8 +5603,8 @@
       <c r="E3" t="s">
         <v>176</v>
       </c>
-      <c r="F3" t="s">
-        <v>178</v>
+      <c r="F3" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20343"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA674195-4D7F-4A22-9DA3-22B6B32F5252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B80C8-6B0D-4F49-B9A5-27C3653D870D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,30 +448,6 @@
     <t>소단위전공과정차이, 소단위전공과정비교, 소단위전공과정다른점, 소단위전공과정vs, 소단위전공과정뭐가, 소단위전공과정어떤차이, 소단위전공과정어떤, 소단위전공과정차이점, 소단위전공과정비교해줘, 소단위전공과정뭐가다른, 소단위전공과정어떤게나, 소단위전공과정어떤게좋, 소단위전공과정차이가뭐, 소단위전공과정장단점, 소단위전공과정유리한, 소단위전공과정불리한, 소단위전공과정선택하려면, 소단위전공과정고민중, 소단위전공과정어떤걸선택, 소단위전공과정구분, 소단위전공과정구별, 소단위전공과정차이알려줘, 소단위전공과정비교분석, 소단위전공과정비교해서, 소단위전공과정대조</t>
   </si>
   <si>
-    <t>마이크로디그리차이, 마이크로디그리비교, 마이크로디그리다른점, 마이크로디그리vs, 마이크로디그리뭐가, 마이크로디그리어떤차이, 마이크로디그리어떤, 마이크로디그리차이점, 마이크로디그리비교해줘, 마이크로디그리뭐가다른, 마이크로디그리어떤게나, 마이크로디그리어떤게좋, 마이크로디그리차이가뭐, 마이크로디그리장단점, 마이크로디그리유리한, 마이크로디그리불리한, 마이크로디그리선택하려면, 마이크로디그리고민중, 마이크로디그리어떤걸선택, 마이크로디그리구분, 마이크로디그리구별, 마이크로디그리차이알려줘, 마이크로디그리비교분석, 마이크로디그리비교해서, 마이크로디그리대조</t>
-  </si>
-  <si>
-    <t>다전공제도, 다전공뭐, 다전공제도뭐, 다전공무엇, 다전공제도무엇, 다전공알려, 다전공제도알려, 다전공설명, 다전공제도에대해설명, 다전공제도에대해알려, 다전공의개념, 다전공개념, 다전공정의, 다전공의정의가뭐, 다전공이뭐, 유연학사제도가뭐, 유연학사제도뭐, 유연학사제도에대해설명, 유연학사제도가무엇, 유연학사제도개념, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도알려, 유연학사제도에대해알려, 유연학사제도설명, 다전공설명해줘, 다전공알려줘, 다전공정보알려, 다전공뭔지, 다전공이해, 다전공의미, 다전공내용, 다전공상세, 다전공자세히, 다전공구체적으로, 다전공어떤제도, 다전공어떤전공, 다전공무슨전공, 다전공궁금, 다전공알고싶, 다전공모르겠</t>
-  </si>
-  <si>
-    <t>복수전공복수전공, 복수전공제도, 복수전공뭐야, 복수전공무엇, 복수전공알려줘, 복수전공설명, 복수전공개념, 복수전공정의, 복수전공이뭐, 복수전공설명해줘, 복수전공정보알려, 복수전공뭔지, 복수전공이해, 복수전공의미, 복수전공내용, 복수전공상세, 복수전공자세히, 복수전공구체적으로, 복수전공어떤제도, 복수전공어떤전공, 복수전공무슨전공, 복수전공궁금, 복수전공알고싶, 복수전공모르겠</t>
-  </si>
-  <si>
-    <t>부전공부전공, 부전공제도, 부전공뭐야, 부전공무엇, 부전공알려줘, 부전공설명, 부전공개념, 부전공정의, 부전공이뭐, 부전공설명해줘, 부전공정보알려, 부전공뭔지, 부전공이해, 부전공의미, 부전공내용, 부전공상세, 부전공자세히, 부전공구체적으로, 부전공어떤제도, 부전공어떤전공, 부전공무슨전공, 부전공궁금, 부전공알고싶, 부전공모르겠</t>
-  </si>
-  <si>
-    <t>융합전공융합전공, 융합전공제도, 융합전공뭐야, 융합전공무엇, 융합전공알려줘, 융합전공설명, 융합전공개념, 융합전공정의, 융합전공이뭐, 융합전공설명해줘, 융합전공정보알려, 융합전공뭔지, 융합전공이해, 융합전공의미, 융합전공내용, 융합전공상세, 융합전공자세히, 융합전공구체적으로, 융합전공어떤제도, 융합전공어떤전공, 융합전공무슨전공, 융합전공궁금, 융합전공알고싶, 융합전공모르겠</t>
-  </si>
-  <si>
-    <t>융합부전공융합부전공, 융합부전공제도, 융합부전공뭐야, 융합부전공무엇, 융합부전공알려줘, 융합부전공설명, 융합부전공개념, 융합부전공정의, 융합부전공이뭐, 융합부전공설명해줘, 융합부전공정보알려, 융합부전공뭔지, 융합부전공이해, 융합부전공의미, 융합부전공내용, 융합부전공상세, 융합부전공자세히, 융합부전공구체적으로, 융합부전공어떤제도, 융합부전공어떤전공, 융합부전공무슨전공, 융합부전공궁금, 융합부전공알고싶, 융합부전공모르겠</t>
-  </si>
-  <si>
-    <t>연계전공연계전공, 연계전공제도, 연계전공뭐야, 연계전공무엇, 연계전공알려줘, 연계전공설명, 연계전공개념, 연계전공정의, 연계전공이뭐, 연계전공설명해줘, 연계전공정보알려, 연계전공뭔지, 연계전공이해, 연계전공의미, 연계전공내용, 연계전공상세, 연계전공자세히, 연계전공구체적으로, 연계전공어떤제도, 연계전공어떤전공, 연계전공무슨전공, 연계전공궁금, 연계전공알고싶, 연계전공모르겠</t>
-  </si>
-  <si>
-    <t>마이크로디그리란, 마이크로디그리가뭐, 마이크로디그리가뭐야, 마이크로디그리제도, 마이크로디그리설명, 마디란, 마디가뭐, 마이크로디그리무엇, 마이크로디그리알려, 마이크로디그리개념, 마이크로디그리정의, microdegree뭐, 소단위전공과정이란, 소단위전공과정뭐, 소단위전공과정이뭐, 소단위가뭐, 마이크로디그리에대해, 마이크로디그리설명해줘, 마이크로디그리알려줘, 마이크로디그리정보알려, 마이크로디그리뭔지, 마이크로디그리이해, 마이크로디그리의미, 마이크로디그리내용, 마이크로디그리상세, 마이크로디그리자세히, 마이크로디그리구체적으로, 마이크로디그리어떤제도, 마이크로디그리어떤전공, 마이크로디그리무슨전공, 마이크로디그리궁금, 마이크로디그리알고싶, 마이크로디그리모르겠</t>
-  </si>
-  <si>
     <t>다전공학점, 다전공몇학점, 다전공이수, 다전공이수학점, 다전공필수학점, 다전공졸업학점, 다전공별이수학점, 다전공총학점, 다전공필요학점, 다전공이수해야할학점, 다전공학점체계, 다전공학점구조, 다전공학점계산, 다전공몇학점필요, 다전공몇학점들어야, 다전공학점기준, 다전공최소학점, 다전공필수이수, 다전공이수학점은, 다전공학점충족, 다전공학점조건, 다전공졸업요건학점, 다전공인정학점, 다전공이수학점확인</t>
   </si>
   <si>
@@ -12582,6 +12558,38 @@
       </rPr>
       <t>참고</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리차이, 마이크로디그리비교, 마이크로디그리다른점, 마이크로디그리vs, 마이크로디그리뭐가, 마이크로디그리어떤차이, 마이크로디그리어떤, 마이크로디그리차이점, 마이크로디그리비교해줘, 마이크로디그리뭐가다른, 마이크로디그리어떤게나, 마이크로디그리어떤게좋, 마이크로디그리차이가뭐, 마이크로디그리장단점, 마이크로디그리유리한, 마이크로디그리불리한, 마이크로디그리선택하려면, 마이크로디그리고민중, 마이크로디그리어떤걸선택, 마이크로디그리구분, 마이크로디그리구별, 마이크로디그리차이알려줘, 마이크로디그리비교분석, 마이크로디그리비교해서, 마이크로디그리대조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공복수전공, 복수전공제도, 복수전공뭐야, 복수전공무엇, 복수전공알려줘, 복수전공설명, 복수전공개념, 복수전공정의, 복수전공이뭐, 복수전공설명해줘, 복수전공정보알려, 복수전공뭔지, 복수전공이해, 복수전공의미, 복수전공내용, 복수전공상세, 복수전공자세히, 복수전공구체적으로, 복수전공어떤제도, 복수전공어떤전공, 복수전공무슨전공, 복수전공궁금, 복수전공알고싶, 복수전공모르겠, 복수전공뭔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공제도, 다전공뭐, 다전공제도뭐, 다전공무엇, 다전공제도무엇, 다전공알려, 다전공제도알려, 다전공설명, 다전공제도에대해설명, 다전공제도에대해알려, 다전공의개념, 다전공개념, 다전공정의, 다전공의정의가뭐, 다전공이뭐, 유연학사제도가뭐, 유연학사제도뭐, 유연학사제도에대해설명, 유연학사제도가무엇, 유연학사제도개념, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도알려, 유연학사제도에대해알려, 유연학사제도설명, 다전공설명해줘, 다전공알려줘, 다전공정보알려, 다전공뭔지, 다전공이해, 다전공의미, 다전공내용, 다전공상세, 다전공자세히, 다전공구체적으로, 다전공어떤제도, 다전공어떤전공, 다전공무슨전공, 다전공궁금, 다전공알고싶, 다전공모르겠, 다전공은뭐, 다전공은뭔데, 다전공이뭔데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공부전공, 부전공제도, 부전공뭐야, 부전공무엇, 부전공알려줘, 부전공설명, 부전공개념, 부전공정의, 부전공이뭐, 부전공설명해줘, 부전공정보알려, 부전공뭔지, 부전공이해, 부전공의미, 부전공내용, 부전공상세, 부전공자세히, 부전공구체적으로, 부전공어떤제도, 부전공어떤전공, 부전공무슨전공, 부전공궁금, 부전공알고싶, 부전공모르겠, 부전공이뭔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공융합전공, 융합전공제도, 융합전공뭐야, 융합전공무엇, 융합전공알려줘, 융합전공설명, 융합전공개념, 융합전공정의, 융합전공이뭐, 융합전공설명해줘, 융합전공정보알려, 융합전공뭔지, 융합전공이해, 융합전공의미, 융합전공내용, 융합전공상세, 융합전공자세히, 융합전공구체적으로, 융합전공어떤제도, 융합전공어떤전공, 융합전공무슨전공, 융합전공궁금, 융합전공알고싶, 융합전공모르겠, 융합전공이뭔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합부전공융합부전공, 융합부전공제도, 융합부전공뭐야, 융합부전공무엇, 융합부전공알려줘, 융합부전공설명, 융합부전공개념, 융합부전공정의, 융합부전공이뭐, 융합부전공설명해줘, 융합부전공정보알려, 융합부전공뭔지, 융합부전공이해, 융합부전공의미, 융합부전공내용, 융합부전공상세, 융합부전공자세히, 융합부전공구체적으로, 융합부전공어떤제도, 융합부전공어떤전공, 융합부전공무슨전공, 융합부전공궁금, 융합부전공알고싶, 융합부전공모르겠, 융합부전공이뭔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공연계전공, 연계전공제도, 연계전공뭐야, 연계전공무엇, 연계전공알려줘, 연계전공설명, 연계전공개념, 연계전공정의, 연계전공이뭐, 연계전공설명해줘, 연계전공정보알려, 연계전공뭔지, 연계전공이해, 연계전공의미, 연계전공내용, 연계전공상세, 연계전공자세히, 연계전공구체적으로, 연계전공어떤제도, 연계전공어떤전공, 연계전공무슨전공, 연계전공궁금, 연계전공알고싶, 연계전공모르겠, 연계전공이뭔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리란, 마이크로디그리가뭐, 마이크로디그리가뭐야, 마이크로디그리제도, 마이크로디그리설명, 마디란, 마디가뭐, 마이크로디그리무엇, 마이크로디그리알려, 마이크로디그리개념, 마이크로디그리정의, microdegree뭐, 소단위전공과정이란, 소단위전공과정뭐, 소단위전공과정이뭐, 소단위가뭐, 마이크로디그리에대해, 마이크로디그리설명해줘, 마이크로디그리알려줘, 마이크로디그리정보알려, 마이크로디그리뭔지, 마이크로디그리이해, 마이크로디그리의미, 마이크로디그리내용, 마이크로디그리상세, 마이크로디그리자세히, 마이크로디그리구체적으로, 마이크로디그리어떤제도, 마이크로디그리어떤전공, 마이크로디그리무슨전공, 마이크로디그리궁금, 마이크로디그리알고싶, 마이크로디그리모르겠, 마이크로디그리가뭐, 마이크로디그리는뭐, 마이크로디그리가뭔, 마이크로디그리는뭔, 소단위가뭔, 소단위전공과정이뭔, 소단위는뭔, 소단위전공과정은뭔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13060,13 +13068,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13086,7 +13094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -13100,13 +13108,13 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13120,13 +13128,13 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -13140,13 +13148,13 @@
         <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -13160,13 +13168,13 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -13180,13 +13188,13 @@
         <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -13200,13 +13208,13 @@
         <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -13217,13 +13225,13 @@
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -13237,13 +13245,13 @@
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -13257,10 +13265,10 @@
         <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -13274,10 +13282,10 @@
         <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -13291,10 +13299,10 @@
         <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -13308,10 +13316,10 @@
         <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -13325,10 +13333,10 @@
         <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -13342,10 +13350,10 @@
         <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -13359,13 +13367,13 @@
         <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -13379,13 +13387,13 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -13399,10 +13407,10 @@
         <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -13416,10 +13424,10 @@
         <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -13433,10 +13441,10 @@
         <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -13450,10 +13458,10 @@
         <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -13467,10 +13475,10 @@
         <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -13484,10 +13492,10 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -13501,13 +13509,13 @@
         <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -13521,13 +13529,13 @@
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -13541,10 +13549,10 @@
         <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -13558,10 +13566,10 @@
         <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -13575,10 +13583,10 @@
         <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -13592,10 +13600,10 @@
         <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -13609,10 +13617,10 @@
         <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -13626,10 +13634,10 @@
         <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -13643,13 +13651,13 @@
         <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -13663,13 +13671,13 @@
         <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -13683,10 +13691,10 @@
         <v>135</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -13700,10 +13708,10 @@
         <v>136</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -13717,10 +13725,10 @@
         <v>137</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -13737,10 +13745,10 @@
         <v>99</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -13757,10 +13765,10 @@
         <v>98</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -13774,10 +13782,10 @@
         <v>140</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -13791,13 +13799,13 @@
         <v>141</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -13808,16 +13816,16 @@
         <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -13828,13 +13836,13 @@
         <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -13845,13 +13853,13 @@
         <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -13862,13 +13870,13 @@
         <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -13879,13 +13887,13 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -13896,13 +13904,13 @@
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -13913,13 +13921,13 @@
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -13930,16 +13938,16 @@
         <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="E48" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -13950,13 +13958,13 @@
         <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -13967,13 +13975,13 @@
         <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -13984,13 +13992,13 @@
         <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -14001,13 +14009,13 @@
         <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -14018,13 +14026,13 @@
         <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -14035,13 +14043,13 @@
         <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -14052,16 +14060,16 @@
         <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -14072,16 +14080,16 @@
         <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -14092,13 +14100,13 @@
         <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -14109,13 +14117,13 @@
         <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F58" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -14126,13 +14134,13 @@
         <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F59" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -14143,13 +14151,13 @@
         <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F60" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -14160,13 +14168,13 @@
         <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -14177,13 +14185,13 @@
         <v>103</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F62" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -14194,13 +14202,13 @@
         <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F63" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -14211,16 +14219,16 @@
         <v>101</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -14231,16 +14239,16 @@
         <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F65" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -14251,13 +14259,13 @@
         <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F66" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -14268,13 +14276,13 @@
         <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -14285,13 +14293,13 @@
         <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -14302,13 +14310,13 @@
         <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -14319,13 +14327,13 @@
         <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -14336,13 +14344,13 @@
         <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -14353,13 +14361,13 @@
         <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -14370,13 +14378,13 @@
         <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -14387,15 +14395,15 @@
         <v>102</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B80C8-6B0D-4F49-B9A5-27C3653D870D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612826FE-A1F0-43DD-8D3C-47EEB9B08933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,20 +536,6 @@
 💡 신청서 양식 및 정확한 일정은 학사공지 확인: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
   </si>
   <si>
-    <t>✅ 신청 자격: 한경국립대학교 재학생이면 누구나 신청 가능
-📌 모든 다전공 제도는 입학 후 첫 학기부터 신청 가능
-💡 자세한 사항은 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-  </si>
-  <si>
-    <t>✅ 신청 자격: 입학 후 첫 학기부터 신청 가능
-💡 자세한 사항은 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-  </si>
-  <si>
-    <t>✅ 신청 자격: 입학 후 첫 학기부터 신청 가능
-📌 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청 가능
-💡 자세한 사항은 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown</t>
-  </si>
-  <si>
     <t>📋 포기 절차:
 1. 포기서 작성
 2. 다전공 학부장 확인
@@ -12590,6 +12576,753 @@
   </si>
   <si>
     <t>마이크로디그리란, 마이크로디그리가뭐, 마이크로디그리가뭐야, 마이크로디그리제도, 마이크로디그리설명, 마디란, 마디가뭐, 마이크로디그리무엇, 마이크로디그리알려, 마이크로디그리개념, 마이크로디그리정의, microdegree뭐, 소단위전공과정이란, 소단위전공과정뭐, 소단위전공과정이뭐, 소단위가뭐, 마이크로디그리에대해, 마이크로디그리설명해줘, 마이크로디그리알려줘, 마이크로디그리정보알려, 마이크로디그리뭔지, 마이크로디그리이해, 마이크로디그리의미, 마이크로디그리내용, 마이크로디그리상세, 마이크로디그리자세히, 마이크로디그리구체적으로, 마이크로디그리어떤제도, 마이크로디그리어떤전공, 마이크로디그리무슨전공, 마이크로디그리궁금, 마이크로디그리알고싶, 마이크로디그리모르겠, 마이크로디그리가뭐, 마이크로디그리는뭐, 마이크로디그리가뭔, 마이크로디그리는뭔, 소단위가뭔, 소단위전공과정이뭔, 소단위는뭔, 소단위전공과정은뭔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 신청 자격: 한경국립대학교 재학생이면 누구나 신청 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 모든 다전공 제도는 입학 후 첫 학기부터 신청 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 자세한 사항은 학사공지 참조: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown 또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왼쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이드바의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다전공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>안내'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참고</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 신청 자격: 입학 후 첫 학기부터 신청 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자세한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사항은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>학사공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왼쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이드바의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다전공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>안내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참고</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 신청 자격: 입학 후 첫 학기부터 신청 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자세한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사항은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>학사공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: https://www.hknu.ac.kr/bbs/kor/70/90689/artclView.do?layout=unknown </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왼쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이드바의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다전공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>안내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참고</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13068,11 +13801,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -13131,7 +13867,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -13264,8 +14000,8 @@
       <c r="D10" t="s">
         <v>111</v>
       </c>
-      <c r="F10" t="s">
-        <v>171</v>
+      <c r="F10" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -13281,8 +14017,8 @@
       <c r="D11" t="s">
         <v>112</v>
       </c>
-      <c r="F11" t="s">
-        <v>172</v>
+      <c r="F11" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -13298,8 +14034,8 @@
       <c r="D12" t="s">
         <v>113</v>
       </c>
-      <c r="F12" t="s">
-        <v>173</v>
+      <c r="F12" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -13315,8 +14051,8 @@
       <c r="D13" t="s">
         <v>114</v>
       </c>
-      <c r="F13" t="s">
-        <v>173</v>
+      <c r="F13" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -13332,8 +14068,8 @@
       <c r="D14" t="s">
         <v>115</v>
       </c>
-      <c r="F14" t="s">
-        <v>173</v>
+      <c r="F14" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -13349,8 +14085,8 @@
       <c r="D15" t="s">
         <v>116</v>
       </c>
-      <c r="F15" t="s">
-        <v>172</v>
+      <c r="F15" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -13369,8 +14105,8 @@
       <c r="E16" t="s">
         <v>169</v>
       </c>
-      <c r="F16" t="s">
-        <v>172</v>
+      <c r="F16" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -13389,8 +14125,8 @@
       <c r="E17" t="s">
         <v>169</v>
       </c>
-      <c r="F17" t="s">
-        <v>172</v>
+      <c r="F17" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -13407,7 +14143,7 @@
         <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -13424,7 +14160,7 @@
         <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -13441,7 +14177,7 @@
         <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -13458,7 +14194,7 @@
         <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -13475,7 +14211,7 @@
         <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -13492,7 +14228,7 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -13512,7 +14248,7 @@
         <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -13532,7 +14268,7 @@
         <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -13549,7 +14285,7 @@
         <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -13566,7 +14302,7 @@
         <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -13583,7 +14319,7 @@
         <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -13600,7 +14336,7 @@
         <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -13617,7 +14353,7 @@
         <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -13634,7 +14370,7 @@
         <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -13654,7 +14390,7 @@
         <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -13674,7 +14410,7 @@
         <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -13691,7 +14427,7 @@
         <v>135</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -13708,7 +14444,7 @@
         <v>136</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -13725,7 +14461,7 @@
         <v>137</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -13745,7 +14481,7 @@
         <v>99</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -13765,7 +14501,7 @@
         <v>98</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -13782,7 +14518,7 @@
         <v>140</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -13802,7 +14538,7 @@
         <v>169</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -13816,13 +14552,13 @@
         <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
         <v>169</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -13836,10 +14572,10 @@
         <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -13853,10 +14589,10 @@
         <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -13870,10 +14606,10 @@
         <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -13887,10 +14623,10 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -13904,10 +14640,10 @@
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -13921,10 +14657,10 @@
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -13938,13 +14674,13 @@
         <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -13961,7 +14697,7 @@
         <v>142</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -13978,7 +14714,7 @@
         <v>143</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -13995,7 +14731,7 @@
         <v>144</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -14012,7 +14748,7 @@
         <v>145</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -14029,7 +14765,7 @@
         <v>146</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -14046,7 +14782,7 @@
         <v>147</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -14066,7 +14802,7 @@
         <v>169</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -14086,7 +14822,7 @@
         <v>169</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -14103,7 +14839,7 @@
         <v>150</v>
       </c>
       <c r="F57" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -14120,7 +14856,7 @@
         <v>151</v>
       </c>
       <c r="F58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -14137,7 +14873,7 @@
         <v>152</v>
       </c>
       <c r="F59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -14154,7 +14890,7 @@
         <v>153</v>
       </c>
       <c r="F60" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -14171,7 +14907,7 @@
         <v>154</v>
       </c>
       <c r="F61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -14188,7 +14924,7 @@
         <v>155</v>
       </c>
       <c r="F62" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -14205,7 +14941,7 @@
         <v>156</v>
       </c>
       <c r="F63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -14225,7 +14961,7 @@
         <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -14245,7 +14981,7 @@
         <v>169</v>
       </c>
       <c r="F65" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -14262,7 +14998,7 @@
         <v>159</v>
       </c>
       <c r="F66" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -14279,7 +15015,7 @@
         <v>160</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -14296,7 +15032,7 @@
         <v>161</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -14313,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -14330,7 +15066,7 @@
         <v>163</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -14347,7 +15083,7 @@
         <v>164</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -14364,7 +15100,7 @@
         <v>165</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -14381,7 +15117,7 @@
         <v>166</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
@@ -14398,7 +15134,7 @@
         <v>167</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612826FE-A1F0-43DD-8D3C-47EEB9B08933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CCFD2-2910-4F89-9B25-05CF1CF7D74C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12555,10 +12555,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다전공제도, 다전공뭐, 다전공제도뭐, 다전공무엇, 다전공제도무엇, 다전공알려, 다전공제도알려, 다전공설명, 다전공제도에대해설명, 다전공제도에대해알려, 다전공의개념, 다전공개념, 다전공정의, 다전공의정의가뭐, 다전공이뭐, 유연학사제도가뭐, 유연학사제도뭐, 유연학사제도에대해설명, 유연학사제도가무엇, 유연학사제도개념, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도알려, 유연학사제도에대해알려, 유연학사제도설명, 다전공설명해줘, 다전공알려줘, 다전공정보알려, 다전공뭔지, 다전공이해, 다전공의미, 다전공내용, 다전공상세, 다전공자세히, 다전공구체적으로, 다전공어떤제도, 다전공어떤전공, 다전공무슨전공, 다전공궁금, 다전공알고싶, 다전공모르겠, 다전공은뭐, 다전공은뭔데, 다전공이뭔데</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>부전공부전공, 부전공제도, 부전공뭐야, 부전공무엇, 부전공알려줘, 부전공설명, 부전공개념, 부전공정의, 부전공이뭐, 부전공설명해줘, 부전공정보알려, 부전공뭔지, 부전공이해, 부전공의미, 부전공내용, 부전공상세, 부전공자세히, 부전공구체적으로, 부전공어떤제도, 부전공어떤전공, 부전공무슨전공, 부전공궁금, 부전공알고싶, 부전공모르겠, 부전공이뭔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13323,6 +13319,10 @@
       </rPr>
       <t>참고</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공제도, 다전공뭐, 다전공제도뭐, 다전공무엇, 다전공제도무엇, 다전공알려, 다전공제도알려, 다전공설명, 다전공제도에대해설명, 다전공제도에대해알려, 다전공의개념, 다전공개념, 다전공정의, 다전공의정의가뭐, 다전공이뭐, 유연학사제도가뭐, 유연학사제도뭐, 유연학사제도에대해설명, 유연학사제도가무엇, 유연학사제도개념, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도알려, 유연학사제도에대해알려, 유연학사제도설명, 다전공설명해줘, 다전공알려줘, 다전공정보알려, 다전공뭔지, 다전공이해, 다전공의미, 다전공내용, 다전공상세, 다전공자세히, 다전공구체적으로, 다전공어떤제도, 다전공어떤전공, 다전공무슨전공, 다전공궁금, 다전공알고싶, 다전공모르겠, 다전공은뭐, 다전공은뭔데, 다전공이뭔데, 유연학사제도는뭐, 유연학사제도가뭐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13801,16 +13801,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -14001,10 +14001,10 @@
         <v>111</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -14018,10 +14018,10 @@
         <v>112</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -14035,10 +14035,10 @@
         <v>113</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -14052,10 +14052,10 @@
         <v>114</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -14069,10 +14069,10 @@
         <v>115</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -14086,10 +14086,10 @@
         <v>116</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -14106,10 +14106,10 @@
         <v>169</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -14126,10 +14126,10 @@
         <v>169</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -14572,13 +14572,13 @@
         <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -14606,13 +14606,13 @@
         <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -14623,13 +14623,13 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -14640,13 +14640,13 @@
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -14657,13 +14657,13 @@
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -14683,7 +14683,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CCFD2-2910-4F89-9B25-05CF1CF7D74C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F0DD54-0A72-477B-8AC8-1DEF5E1E5A26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="235">
   <si>
     <t>faq_id</t>
   </si>
@@ -13322,7 +13322,459 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다전공제도, 다전공뭐, 다전공제도뭐, 다전공무엇, 다전공제도무엇, 다전공알려, 다전공제도알려, 다전공설명, 다전공제도에대해설명, 다전공제도에대해알려, 다전공의개념, 다전공개념, 다전공정의, 다전공의정의가뭐, 다전공이뭐, 유연학사제도가뭐, 유연학사제도뭐, 유연학사제도에대해설명, 유연학사제도가무엇, 유연학사제도개념, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도알려, 유연학사제도에대해알려, 유연학사제도설명, 다전공설명해줘, 다전공알려줘, 다전공정보알려, 다전공뭔지, 다전공이해, 다전공의미, 다전공내용, 다전공상세, 다전공자세히, 다전공구체적으로, 다전공어떤제도, 다전공어떤전공, 다전공무슨전공, 다전공궁금, 다전공알고싶, 다전공모르겠, 다전공은뭐, 다전공은뭔데, 다전공이뭔데, 유연학사제도는뭐, 유연학사제도가뭐</t>
+    <t>F074</t>
+  </si>
+  <si>
+    <t>유연학사제도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공제도, 다전공뭐, 다전공제도뭐, 다전공무엇, 다전공제도무엇, 다전공알려, 다전공제도알려, 다전공설명, 다전공제도에대해설명, 다전공제도에대해알려, 다전공의개념, 다전공개념, 다전공정의, 다전공의정의가뭐, 다전공이뭐, 다전공설명해줘, 다전공알려줘, 다전공정보알려, 다전공뭔지, 다전공이해, 다전공의미, 다전공내용, 다전공상세, 다전공자세히, 다전공구체적으로, 다전공어떤제도, 다전공어떤전공, 다전공무슨전공, 다전공궁금, 다전공알고싶, 다전공모르겠, 다전공은뭐, 다전공은뭔데, 다전공이뭔데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유연학사제도가뭐, 유연학사제도뭐, 유연학사제도에대해설명, 유연학사제도가무엇, 유연학사제도개념, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도알려, 유연학사제도에대해알려, 유연학사제도설명, 유연학사제도는뭐, 유연학사제도, 유연학사제도무엇, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도개념, 유연학사제도정보알려, 유연학사제도가뭔지, 유연학사제도뭔지, 유연학사제도의의미, 유연학사제도의미, 유연학사제도내용, 유연학사제도상세, 유연학사제도자세히, 유연하가제도구체적으로, 유연학사제도는어떤제도, 유연학사제도는어떤전공, 유연학사제도에는어떤전공, 유연학사제도는무슨전공, 유연학사제도무슨전공, 유연학사제도궁금, 유연학사제도에대해알고싶, 유연학사제도를알고싶, 유연학사제도모르겠, 유연학사가뭐, 유연학사뭐, 유연학사는뭐, 유연학사제도는뭔데, 유연학사제도가뭔데, 유연학사제도가뭘, 유연학사제도뭔데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 유연학사제도(다전공)란?
+주전공 외에 복수전공, 융합전공 등 다양한 학위를 취득하여 융합형 인재로 성장할 수 있도록 지원하는 제도입니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 유연학사제도(다전공) 종류:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 복수전공 - 2개 학위 취득
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 부전공 - 타 전공 일부 이수
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 융합전공 - 2개 이상 전공 융합, 2개 학위
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 융합부전공 - 융합전공의 부전공 버전
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 연계전공 - 타 전공 9학점만 이수
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 소단위전공과정(마이크로디그리) - 8~12학점, 이수증 발급
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 각 제도별 자세한 내용은 '복수전공이 뭐야?' 처럼 질문해주세요!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사항은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왼쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이드바의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다전공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>안내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다전공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>분석'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참고</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13799,10 +14251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14569,13 +15021,13 @@
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -14586,13 +15038,13 @@
         <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -14603,13 +15055,13 @@
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -14620,13 +15072,13 @@
         <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -14637,13 +15089,13 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -14654,13 +15106,13 @@
         <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -14671,16 +15123,13 @@
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
-      </c>
-      <c r="E48" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -14688,16 +15137,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>226</v>
+      </c>
+      <c r="E49" t="s">
+        <v>169</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -14708,13 +15160,13 @@
         <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -14725,13 +15177,13 @@
         <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -14742,13 +15194,13 @@
         <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -14759,13 +15211,13 @@
         <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -14776,13 +15228,13 @@
         <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -14793,16 +15245,13 @@
         <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -14813,16 +15262,16 @@
         <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E56" t="s">
         <v>169</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -14830,16 +15279,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
-      </c>
-      <c r="F57" t="s">
-        <v>180</v>
+        <v>149</v>
+      </c>
+      <c r="E57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -14847,16 +15299,16 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
         <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -14864,16 +15316,16 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -14881,16 +15333,16 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
         <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -14898,16 +15350,16 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
         <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -14915,16 +15367,16 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
         <v>103</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -14932,16 +15384,16 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
         <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -14949,19 +15401,16 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -14972,16 +15421,16 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
         <v>169</v>
       </c>
       <c r="F65" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -14989,16 +15438,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E66" t="s">
+        <v>169</v>
       </c>
       <c r="F66" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -15006,16 +15458,16 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
+      </c>
+      <c r="F67" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -15026,13 +15478,13 @@
         <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -15043,13 +15495,13 @@
         <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -15060,13 +15512,13 @@
         <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -15077,13 +15529,13 @@
         <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -15094,13 +15546,13 @@
         <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -15111,13 +15563,13 @@
         <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -15128,12 +15580,29 @@
         <v>94</v>
       </c>
       <c r="C74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
         <v>102</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>167</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>189</v>
       </c>
     </row>

--- a/data/faq_mapping.xlsx
+++ b/data/faq_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F0DD54-0A72-477B-8AC8-1DEF5E1E5A26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B72FEE-E12C-43CF-A0F8-F6DE4EFCE494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13333,10 +13333,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유연학사제도가뭐, 유연학사제도뭐, 유연학사제도에대해설명, 유연학사제도가무엇, 유연학사제도개념, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도알려, 유연학사제도에대해알려, 유연학사제도설명, 유연학사제도는뭐, 유연학사제도, 유연학사제도무엇, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도개념, 유연학사제도정보알려, 유연학사제도가뭔지, 유연학사제도뭔지, 유연학사제도의의미, 유연학사제도의미, 유연학사제도내용, 유연학사제도상세, 유연학사제도자세히, 유연하가제도구체적으로, 유연학사제도는어떤제도, 유연학사제도는어떤전공, 유연학사제도에는어떤전공, 유연학사제도는무슨전공, 유연학사제도무슨전공, 유연학사제도궁금, 유연학사제도에대해알고싶, 유연학사제도를알고싶, 유연학사제도모르겠, 유연학사가뭐, 유연학사뭐, 유연학사는뭐, 유연학사제도는뭔데, 유연학사제도가뭔데, 유연학사제도가뭘, 유연학사제도뭔데</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -13775,6 +13771,10 @@
       </rPr>
       <t>참고</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유연학사제도가뭐, 유연학사제도뭐, 유연학사제도에대해설명, 유연학사제도가무엇, 유연학사제도개념, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도알려, 유연학사제도에대해알려, 유연학사제도설명, 유연학사제도는뭐, 유연학사제도, 유연학사제도무엇, 유연학사제도의개념, 유연학사제도의정의, 유연학사제도정의, 유연학사제도개념, 유연학사제도정보알려, 유연학사제도가뭔지, 유연학사제도뭔지, 유연학사제도의의미, 유연학사제도의미, 유연학사제도내용, 유연학사제도상세, 유연학사제도자세히, 유연하가제도구체적으로, 유연학사제도는어떤제도, 유연학사제도는어떤전공, 유연학사제도에는어떤전공, 유연학사제도는무슨전공, 유연학사제도무슨전공, 유연학사제도궁금, 유연학사제도에대해알고싶, 유연학사제도를알고싶, 유연학사제도모르겠, 유연학사가뭐, 유연학사뭐, 유연학사는뭐, 유연학사제도는뭔데, 유연학사제도가뭔데, 유연학사제도가뭘, 유연학사제도뭔데, 유연학사가뭐, 유연학사뭐, 유연학사에대해설명, 유연학사알려, 유연학사설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -14253,8 +14253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15024,10 +15024,10 @@
         <v>231</v>
       </c>
       <c r="D42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
